--- a/EJBComponents/ImageProcessingBenchmark_4/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_4/stats/PowerConsumption/PowerConsumption.xlsx
@@ -791,11 +791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109554688"/>
-        <c:axId val="109561344"/>
+        <c:axId val="109747200"/>
+        <c:axId val="109757952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109554688"/>
+        <c:axId val="109747200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109561344"/>
+        <c:crossAx val="109757952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109561344"/>
+        <c:axId val="109757952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -1029,10 +1029,2533 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109554688"/>
+        <c:crossAx val="109747200"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50830074613116261"/>
+          <c:y val="4.3060751089764676E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="6.0403338906481516E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Speedups with Four</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t> Threads - Local Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2284032149024133"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9170400953518024E-2"/>
+          <c:y val="4.5542340167375628E-2"/>
+          <c:w val="0.92635469088474964"/>
+          <c:h val="0.88058677739602143"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ImageOne_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$5:$AT$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9565217391304348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ImageTwo_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$10:$AT$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8064516129032255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8064516129032255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7441860465116279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5757575757575752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ImageThree_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$15:$AT$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9605911330049264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7904761904761903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5512820512820511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3728813559322037</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.109375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.431034482758621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1587301587301586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ImageFour_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$20:$AT$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9541984732824427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5346534653465347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7647058823529411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1604938271604937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8787878787878789</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4150943396226414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5068493150684934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ImageFive_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$25:$AT$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9691011235955056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8306010928961745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7928286852589643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0346320346320343</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.52158273381295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.73828125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8495934959349594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6961538461538459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ImageSix_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$30:$AT$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9601449275362322</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8368794326241136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7743589743589747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0393258426966292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.516279069767442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8473684210526318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0914285714285716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9562841530054644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="134985216"/>
+        <c:axId val="136343936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="134985216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136343936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136343936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134985216"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50830074613116261"/>
+          <c:y val="4.3060751089764676E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="6.0403338906481516E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Speedups</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t> with Eight Threads -Remote Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23119889487498274"/>
+          <c:y val="1.2661984983334436E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8331205967675095E-2"/>
+          <c:y val="4.4714888459400658E-2"/>
+          <c:w val="0.93226203350417591"/>
+          <c:h val="0.89174157752444982"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ImageOne_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$46:$AT$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ImageTwo_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$51:$AT$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0796460176991154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9012345679012346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3098591549295779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0517241379310347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4339622641509431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1086956521739131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1212121212121211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ImageThree_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$56:$AT$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8703703703703702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6904761904761902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4964539007092199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2349726775956285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6130952380952381</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6985294117647056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ImageFour_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$61:$AT$61</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1764705882352939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9942196531791905</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.547945205479452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9541984732824424</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8863636363636358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6923076923076916</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.2409638554216871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0941176470588232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ImageFive_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$66:$AT$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0795631825273011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6396039603960397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2276029055690074</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.03939393939394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7762039660056659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2861736334405149</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2183544303797467</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6284722222222223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ImageSix_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$71:$AT$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7786407766990291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3916449086161879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7235772357723578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2949640287769788</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9826086956521745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4964539007092199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1447963800904981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9923664122137401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="80442880"/>
+        <c:axId val="80444800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80442880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41996938803702166"/>
+              <c:y val="0.96453962586604225"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80444800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80444800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80442880"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.48649890868904544"/>
+          <c:y val="5.6054410471636326E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="5.3692158297476304E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Speedups with Eight</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t> Threads - Local Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23614438843478222"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9170400953518024E-2"/>
+          <c:y val="4.5542340167375628E-2"/>
+          <c:w val="0.92635469088474964"/>
+          <c:h val="0.89091414539745339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ImageOne_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$45:$AT$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9565217391304348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ImageTwo_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$50:$AT$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9672131147540983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8709677419354835</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8709677419354835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6363636363636362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9268292682926829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8709677419354835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ImageThree_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$55:$AT$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.975369458128079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8190476190476188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8190476190476188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4869565217391307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2079999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8642857142857143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1825396825396823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2079999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ImageFour_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$60:$AT$60</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9847328244274809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8235294117647056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2098765432098766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7956989247311825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7083333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ImageFive_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$65:$AT$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8378378378378373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7172774869109948</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8378378378378373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8286852589641436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5323383084577116</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.806324110671937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ImageSix_Local</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$70:$AT$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9782608695652175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8723404255319149</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8723404255319149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2117647058823531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0674157303370784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9354838709677415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="102012800"/>
+        <c:axId val="102015360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102012800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4031272876314449"/>
+              <c:y val="0.96759938104650245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102015360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="102015360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102012800"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
         <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
@@ -1670,11 +4193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111144960"/>
-        <c:axId val="111147264"/>
+        <c:axId val="109637632"/>
+        <c:axId val="109639936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111144960"/>
+        <c:axId val="109637632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +4313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111147264"/>
+        <c:crossAx val="109639936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +4321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111147264"/>
+        <c:axId val="109639936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -1908,7 +4431,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111144960"/>
+        <c:crossAx val="109637632"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -2554,11 +5077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111469312"/>
-        <c:axId val="111471616"/>
+        <c:axId val="110093056"/>
+        <c:axId val="110095360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111469312"/>
+        <c:axId val="110093056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +5197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111471616"/>
+        <c:crossAx val="110095360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2682,7 +5205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111471616"/>
+        <c:axId val="110095360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -2792,7 +5315,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111469312"/>
+        <c:crossAx val="110093056"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -3433,11 +5956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112567808"/>
-        <c:axId val="112574464"/>
+        <c:axId val="111457792"/>
+        <c:axId val="111468544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112567808"/>
+        <c:axId val="111457792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +6076,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112574464"/>
+        <c:crossAx val="111468544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3561,7 +6084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112574464"/>
+        <c:axId val="111468544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -3671,7 +6194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112567808"/>
+        <c:crossAx val="111457792"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -4312,11 +6835,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112967680"/>
-        <c:axId val="112969984"/>
+        <c:axId val="111532288"/>
+        <c:axId val="111538944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112967680"/>
+        <c:axId val="111532288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,7 +6955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112969984"/>
+        <c:crossAx val="111538944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4440,7 +6963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112969984"/>
+        <c:axId val="111538944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -4550,7 +7073,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112967680"/>
+        <c:crossAx val="111532288"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -5191,11 +7714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113300608"/>
-        <c:axId val="113302912"/>
+        <c:axId val="109890560"/>
+        <c:axId val="109893120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113300608"/>
+        <c:axId val="109890560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5311,7 +7834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113302912"/>
+        <c:crossAx val="109893120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5319,7 +7842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113302912"/>
+        <c:axId val="109893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -5429,7 +7952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113300608"/>
+        <c:crossAx val="109890560"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -6070,11 +8593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113358720"/>
-        <c:axId val="113369472"/>
+        <c:axId val="109961216"/>
+        <c:axId val="109963520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113358720"/>
+        <c:axId val="109961216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,7 +8713,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113369472"/>
+        <c:crossAx val="109963520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6198,7 +8721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113369472"/>
+        <c:axId val="109963520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -6308,7 +8831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113358720"/>
+        <c:crossAx val="109961216"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -6949,11 +9472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113408640"/>
-        <c:axId val="113419392"/>
+        <c:axId val="110011136"/>
+        <c:axId val="110013440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113408640"/>
+        <c:axId val="110011136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,7 +9592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113419392"/>
+        <c:crossAx val="110013440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7077,7 +9600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113419392"/>
+        <c:axId val="110013440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -7187,7 +9710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113408640"/>
+        <c:crossAx val="110011136"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -7211,6 +9734,847 @@
           <c:y val="4.3060751089764676E-2"/>
           <c:w val="0.4741814774638437"/>
           <c:h val="6.0403338906481516E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-NZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1"/>
+              <a:t>Overall Speedups</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-NZ" sz="1600" b="1" baseline="0"/>
+              <a:t> with Four Threads -Remote Mode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-NZ" sz="1600" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23119889487498274"/>
+          <c:y val="1.2661984983334436E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8331205967675095E-2"/>
+          <c:y val="4.5858809473135087E-2"/>
+          <c:w val="0.9299717970036353"/>
+          <c:h val="0.88029407684313221"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ImageOne_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$Z$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$6:$AT$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3055555555555554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6086956521739126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ImageTwo_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$11:$AT$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1782178217821784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3846153846153846</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3658536585365857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2857142857142865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ImageThree_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$16:$AT$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6699507389162564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8851063829787233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.183098591549296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8742857142857146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6758620689655173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8428571428571434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3741935483870966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ImageFour_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$21:$AT$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7069597069597071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9871794871794872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4380952380952383</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9491525423728815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7530864197530862</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3962264150943398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1315789473684212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.2133333333333338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>ImageFive_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$26:$AT$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7814761215629522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.810502283105023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3041958041958042</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9079365079365083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0658436213991767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2743055555555562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2382978723404259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9967532467532467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>ImageSix_Remote</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AL$31:$AT$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2045454545454541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4642857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3680555555555554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1991341991341988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4494382022471903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9489795918367347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2932330827067657</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8787878787878789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0232-4F6A-BBF0-3D35A16ABE1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="136477312"/>
+        <c:axId val="136488064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="136477312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600" baseline="0"/>
+                  <a:t> of Sub-Images</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41996938803702166"/>
+              <c:y val="0.96453962586604225"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136488064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="136488064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="136477312"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.50637465968927797"/>
+          <c:y val="5.605435859353048E-2"/>
+          <c:w val="0.4741814774638437"/>
+          <c:h val="5.3692158297476304E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8093,6 +11457,134 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>710974</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>61233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85046</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>88446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>37417</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>64635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8727,7 +12219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8737,8 +12229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BF146" sqref="BF146"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AS121" sqref="AS121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EJBComponents/ImageProcessingBenchmark_4/stats/PowerConsumption/PowerConsumption.xlsx
+++ b/EJBComponents/ImageProcessingBenchmark_4/stats/PowerConsumption/PowerConsumption.xlsx
@@ -791,11 +791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109747200"/>
-        <c:axId val="109757952"/>
+        <c:axId val="110803968"/>
+        <c:axId val="110814720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109747200"/>
+        <c:axId val="110803968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -911,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109757952"/>
+        <c:crossAx val="110814720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -919,7 +919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109757952"/>
+        <c:axId val="110814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -1029,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109747200"/>
+        <c:crossAx val="110803968"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -1675,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="134985216"/>
-        <c:axId val="136343936"/>
+        <c:axId val="111732608"/>
+        <c:axId val="111739264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="134985216"/>
+        <c:axId val="111732608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136343936"/>
+        <c:crossAx val="111739264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1803,7 +1803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136343936"/>
+        <c:axId val="111739264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -1870,7 +1870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="134985216"/>
+        <c:crossAx val="111732608"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -2516,11 +2516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80442880"/>
-        <c:axId val="80444800"/>
+        <c:axId val="111782144"/>
+        <c:axId val="111788800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80442880"/>
+        <c:axId val="111782144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2636,7 +2636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80444800"/>
+        <c:crossAx val="111788800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2644,7 +2644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80444800"/>
+        <c:axId val="111788800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -2711,7 +2711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80442880"/>
+        <c:crossAx val="111782144"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3357,11 +3357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102012800"/>
-        <c:axId val="102015360"/>
+        <c:axId val="111848064"/>
+        <c:axId val="111854720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102012800"/>
+        <c:axId val="111848064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3477,7 +3477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102015360"/>
+        <c:crossAx val="111854720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3485,7 +3485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102015360"/>
+        <c:axId val="111854720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -3552,7 +3552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102012800"/>
+        <c:crossAx val="111848064"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -3708,10 +3708,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2939561197475874E-2"/>
+          <c:x val="8.1622213443727915E-2"/>
           <c:y val="4.5542340167375628E-2"/>
-          <c:w val="0.91258559165018105"/>
-          <c:h val="0.89091414539745339"/>
+          <c:w val="0.89390294995329833"/>
+          <c:h val="0.88803792533944204"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3788,31 +3788,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.99900000000000011</c:v>
+                  <c:v>0.27750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64860000000000007</c:v>
+                  <c:v>0.18016666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44880000000000003</c:v>
+                  <c:v>0.12466666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73439999999999994</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53039999999999998</c:v>
+                  <c:v>0.14733333333333332</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58499999999999996</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61199999999999999</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6624000000000001</c:v>
+                  <c:v>0.18400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61199999999999999</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,31 +3859,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.6903999999999995</c:v>
+                  <c:v>0.74733333333333318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6919999999999999</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3206000000000002</c:v>
+                  <c:v>0.36683333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6973999999999998</c:v>
+                  <c:v>0.47149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2834000000000001</c:v>
+                  <c:v>0.35650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8059999999999998</c:v>
+                  <c:v>0.50166666666666659</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.26</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7465999999999999</c:v>
+                  <c:v>0.48516666666666663</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4057999999999999</c:v>
+                  <c:v>0.39050000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,31 +3931,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>9.0744000000000007</c:v>
+                  <c:v>2.5206666666666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7245999999999997</c:v>
+                  <c:v>1.5901666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5360000000000005</c:v>
+                  <c:v>1.2600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2712000000000003</c:v>
+                  <c:v>1.7420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9560000000000004</c:v>
+                  <c:v>1.3766666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3250000000000002</c:v>
+                  <c:v>1.4791666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5295999999999994</c:v>
+                  <c:v>1.5359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.871999999999999</c:v>
+                  <c:v>1.3533333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4432</c:v>
+                  <c:v>1.512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,31 +4003,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.9904000000000002</c:v>
+                  <c:v>1.6640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7728000000000002</c:v>
+                  <c:v>1.048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9375999999999998</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0602</c:v>
+                  <c:v>1.1278333333333335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9375999999999998</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4020000000000001</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8908</c:v>
+                  <c:v>0.80300000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5156000000000001</c:v>
+                  <c:v>1.2543333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1974</c:v>
+                  <c:v>0.88816666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4075,31 +4075,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>16.403399999999998</c:v>
+                  <c:v>4.5564999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.252799999999999</c:v>
+                  <c:v>2.8479999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6859999999999999</c:v>
+                  <c:v>2.1349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7889999999999979</c:v>
+                  <c:v>2.7191666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4248000000000012</c:v>
+                  <c:v>2.6180000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.3424</c:v>
+                  <c:v>3.1506666666666665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.905599999999998</c:v>
+                  <c:v>3.0293333333333328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.4796</c:v>
+                  <c:v>2.911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.232000000000001</c:v>
+                  <c:v>3.1200000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,31 +4147,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.659400000000002</c:v>
+                  <c:v>3.5165000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1143999999999981</c:v>
+                  <c:v>2.2539999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1757999999999988</c:v>
+                  <c:v>1.7154999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9560000000000004</c:v>
+                  <c:v>2.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6895999999999995</c:v>
+                  <c:v>2.1359999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0299999999999994</c:v>
+                  <c:v>2.5083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2079999999999984</c:v>
+                  <c:v>2.2799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4550000000000001</c:v>
+                  <c:v>2.0708333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0154000000000014</c:v>
+                  <c:v>2.2265000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,11 +4193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109637632"/>
-        <c:axId val="109639936"/>
+        <c:axId val="110825472"/>
+        <c:axId val="110827776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109637632"/>
+        <c:axId val="110825472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4298,7 +4298,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4313,7 +4313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109639936"/>
+        <c:crossAx val="110827776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4321,10 +4321,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109639936"/>
+        <c:axId val="110827776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
+          <c:max val="9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4376,7 +4376,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-NZ" sz="1600"/>
-                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                  <a:t>Energy Consumption (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1800"/>
+                  <a:t>KWh / 10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1800" baseline="30000"/>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1600"/>
+                  <a:t>)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4385,8 +4397,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.483522195251184E-4"/>
-              <c:y val="0.31466357001189554"/>
+              <c:x val="6.4835108363189582E-4"/>
+              <c:y val="0.30603490983786158"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4398,7 +4410,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4416,7 +4428,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4431,11 +4443,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109637632"/>
+        <c:crossAx val="110825472"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5077,11 +5089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110093056"/>
-        <c:axId val="110095360"/>
+        <c:axId val="110887680"/>
+        <c:axId val="110889984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110093056"/>
+        <c:axId val="110887680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5197,7 +5209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110095360"/>
+        <c:crossAx val="110889984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5205,7 +5217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110095360"/>
+        <c:axId val="110889984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -5315,7 +5327,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110093056"/>
+        <c:crossAx val="110887680"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -5956,11 +5968,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111457792"/>
-        <c:axId val="111468544"/>
+        <c:axId val="110937600"/>
+        <c:axId val="110948352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111457792"/>
+        <c:axId val="110937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6076,7 +6088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111468544"/>
+        <c:crossAx val="110948352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6084,7 +6096,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111468544"/>
+        <c:axId val="110948352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -6194,7 +6206,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111457792"/>
+        <c:crossAx val="110937600"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -6835,11 +6847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111532288"/>
-        <c:axId val="111538944"/>
+        <c:axId val="111278336"/>
+        <c:axId val="111870720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111532288"/>
+        <c:axId val="111278336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6955,7 +6967,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111538944"/>
+        <c:crossAx val="111870720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6963,7 +6975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111538944"/>
+        <c:axId val="111870720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.5"/>
@@ -7073,7 +7085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111532288"/>
+        <c:crossAx val="111278336"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.5"/>
@@ -7229,9 +7241,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2939561197475874E-2"/>
+          <c:x val="9.1586292928990787E-2"/>
           <c:y val="4.5542340167375628E-2"/>
-          <c:w val="0.91258559165018105"/>
+          <c:w val="0.88393886806774979"/>
           <c:h val="0.89091414539745339"/>
         </c:manualLayout>
       </c:layout>
@@ -7309,31 +7321,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.1413999999999995</c:v>
+                  <c:v>0.59483333333333321</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56</c:v>
+                  <c:v>0.43333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7320000000000001</c:v>
+                  <c:v>0.20333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58560000000000001</c:v>
+                  <c:v>0.16266666666666668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78119999999999989</c:v>
+                  <c:v>0.21699999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3176000000000001</c:v>
+                  <c:v>0.36600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8418000000000001</c:v>
+                  <c:v>0.23383333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,31 +7392,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>5.676000000000001</c:v>
+                  <c:v>1.5766666666666669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1512000000000002</c:v>
+                  <c:v>0.87533333333333341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.52</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4180000000000006</c:v>
+                  <c:v>0.67166666666666675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0496000000000003</c:v>
+                  <c:v>0.56933333333333347</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4759999999999998</c:v>
+                  <c:v>0.40999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.302</c:v>
+                  <c:v>0.36166666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,31 +7464,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>17.4924</c:v>
+                  <c:v>4.859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.9108</c:v>
+                  <c:v>3.5863333333333332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3190000000000008</c:v>
+                  <c:v>2.3108333333333335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5401999999999987</c:v>
+                  <c:v>2.0944999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4050000000000002</c:v>
+                  <c:v>1.7791666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.22</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.46</c:v>
+                  <c:v>1.5166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.673</c:v>
+                  <c:v>1.5758333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7524,31 +7536,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>12.302400000000002</c:v>
+                  <c:v>3.4173333333333336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6814</c:v>
+                  <c:v>2.4114999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5224000000000002</c:v>
+                  <c:v>1.5340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9690000000000003</c:v>
+                  <c:v>1.1025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3187999999999995</c:v>
+                  <c:v>1.1996666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1104000000000003</c:v>
+                  <c:v>0.86399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.9432</c:v>
+                  <c:v>1.0953333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8271999999999999</c:v>
+                  <c:v>0.78533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7450000000000001</c:v>
+                  <c:v>0.76249999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7596,31 +7608,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>31.759800000000002</c:v>
+                  <c:v>8.8221666666666678</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.973800000000004</c:v>
+                  <c:v>6.1038333333333341</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5052</c:v>
+                  <c:v>4.3070000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.1244</c:v>
+                  <c:v>2.8123333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.529</c:v>
+                  <c:v>3.2025000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7479999999999993</c:v>
+                  <c:v>2.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.059199999999999</c:v>
+                  <c:v>3.0719999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7420000000000027</c:v>
+                  <c:v>2.4283333333333337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.2728</c:v>
+                  <c:v>3.1313333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7668,31 +7680,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>25.607999999999997</c:v>
+                  <c:v>7.1133333333333324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.992000000000003</c:v>
+                  <c:v>3.8866666666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.08</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.195199999999998</c:v>
+                  <c:v>2.8319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.454600000000001</c:v>
+                  <c:v>2.3485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7283999999999997</c:v>
+                  <c:v>1.869</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4088000000000003</c:v>
+                  <c:v>2.0579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.027400000000001</c:v>
+                  <c:v>1.3965000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.2369999999999992</c:v>
+                  <c:v>1.7324999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,11 +7726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109890560"/>
-        <c:axId val="109893120"/>
+        <c:axId val="111930752"/>
+        <c:axId val="111933312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109890560"/>
+        <c:axId val="111930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7831,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7834,7 +7846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109893120"/>
+        <c:crossAx val="111933312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7842,10 +7854,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109893120"/>
+        <c:axId val="111933312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="35"/>
+          <c:max val="9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7896,9 +7908,32 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-NZ" sz="1600"/>
-                  <a:t>Energy Consumption (Kilo Watts)</a:t>
+                  <a:rPr lang="en-NZ" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Energy Consumption </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(KWh / 10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1800" b="0" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>-3</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-NZ" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-NZ" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7906,8 +7941,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="6.483522195251184E-4"/>
-              <c:y val="0.32473034021493519"/>
+              <c:x val="6.4835114721670435E-4"/>
+              <c:y val="0.31610168004090122"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7919,7 +7954,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7937,7 +7972,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7952,11 +7987,11 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109890560"/>
+        <c:crossAx val="111930752"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
-        <c:minorUnit val="1"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8593,11 +8628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109961216"/>
-        <c:axId val="109963520"/>
+        <c:axId val="112001408"/>
+        <c:axId val="112003712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109961216"/>
+        <c:axId val="112001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,7 +8748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109963520"/>
+        <c:crossAx val="112003712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8721,7 +8756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109963520"/>
+        <c:axId val="112003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -8831,7 +8866,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109961216"/>
+        <c:crossAx val="112001408"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -9472,11 +9507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110011136"/>
-        <c:axId val="110013440"/>
+        <c:axId val="112050944"/>
+        <c:axId val="112053248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110011136"/>
+        <c:axId val="112050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9592,7 +9627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110013440"/>
+        <c:crossAx val="112053248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9600,7 +9635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110013440"/>
+        <c:axId val="112053248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="35"/>
@@ -9710,7 +9745,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="110011136"/>
+        <c:crossAx val="112050944"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -10356,11 +10391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136477312"/>
-        <c:axId val="136488064"/>
+        <c:axId val="111658112"/>
+        <c:axId val="111660416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136477312"/>
+        <c:axId val="111658112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10476,7 +10511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136488064"/>
+        <c:crossAx val="111660416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10484,7 +10519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136488064"/>
+        <c:axId val="111660416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16"/>
@@ -10551,7 +10586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="136477312"/>
+        <c:crossAx val="111658112"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -12219,7 +12254,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12229,8 +12264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AS121" sqref="AS121"/>
+    <sheetView tabSelected="1" topLeftCell="BZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DO24" sqref="DO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12536,40 +12571,40 @@
         <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <f xml:space="preserve"> (B5 * N5 * 60) / 1000</f>
-        <v>0.99900000000000011</v>
+        <f xml:space="preserve"> (B5 * N5 * 60) / 3600</f>
+        <v>0.27750000000000002</v>
       </c>
       <c r="AA5" s="7">
-        <f t="shared" ref="AA5:AH5" si="0" xml:space="preserve"> (C5 * O5 * 60) / 1000</f>
-        <v>0.64860000000000007</v>
+        <f t="shared" ref="AA5:AH5" si="0" xml:space="preserve"> (C5 * O5 * 60) / 3600</f>
+        <v>0.18016666666666667</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="0"/>
-        <v>0.44880000000000003</v>
+        <v>0.12466666666666668</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="0"/>
-        <v>0.73439999999999994</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="0"/>
-        <v>0.53039999999999998</v>
+        <v>0.14733333333333332</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="0"/>
-        <v>0.58499999999999996</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="0"/>
-        <v>0.61199999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="0"/>
-        <v>0.6624000000000001</v>
+        <v>0.18400000000000002</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" si="0"/>
-        <v>0.61199999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="AK5" s="3" t="s">
         <v>0</v>
@@ -12685,40 +12720,40 @@
         <v>1</v>
       </c>
       <c r="Z6" s="7">
-        <f xml:space="preserve"> (B6 * N6 * 60) / 1000</f>
-        <v>2.1413999999999995</v>
+        <f xml:space="preserve"> (B6 * N6 * 60) / 3600</f>
+        <v>0.59483333333333321</v>
       </c>
       <c r="AA6" s="7">
-        <f t="shared" ref="AA6" si="2" xml:space="preserve"> (C6 * O6 * 60) / 1000</f>
-        <v>1.56</v>
+        <f t="shared" ref="AA6" si="2" xml:space="preserve"> (C6 * O6 * 60) / 3600</f>
+        <v>0.43333333333333335</v>
       </c>
       <c r="AB6" s="7">
-        <f t="shared" ref="AB6" si="3" xml:space="preserve"> (D6 * P6 * 60) / 1000</f>
-        <v>0.9</v>
+        <f t="shared" ref="AB6" si="3" xml:space="preserve"> (D6 * P6 * 60) / 3600</f>
+        <v>0.25</v>
       </c>
       <c r="AC6" s="7">
-        <f t="shared" ref="AC6" si="4" xml:space="preserve"> (E6 * Q6 * 60) / 1000</f>
-        <v>0.9</v>
+        <f t="shared" ref="AC6" si="4" xml:space="preserve"> (E6 * Q6 * 60) / 3600</f>
+        <v>0.25</v>
       </c>
       <c r="AD6" s="7">
-        <f t="shared" ref="AD6" si="5" xml:space="preserve"> (F6 * R6 * 60) / 1000</f>
-        <v>0.7320000000000001</v>
+        <f t="shared" ref="AD6" si="5" xml:space="preserve"> (F6 * R6 * 60) / 3600</f>
+        <v>0.20333333333333337</v>
       </c>
       <c r="AE6" s="7">
-        <f t="shared" ref="AE6" si="6" xml:space="preserve"> (G6 * S6 * 60) / 1000</f>
-        <v>0.58560000000000001</v>
+        <f t="shared" ref="AE6" si="6" xml:space="preserve"> (G6 * S6 * 60) / 3600</f>
+        <v>0.16266666666666668</v>
       </c>
       <c r="AF6" s="7">
-        <f t="shared" ref="AF6" si="7" xml:space="preserve"> (H6 * T6 * 60) / 1000</f>
-        <v>0.78119999999999989</v>
+        <f t="shared" ref="AF6" si="7" xml:space="preserve"> (H6 * T6 * 60) / 3600</f>
+        <v>0.21699999999999997</v>
       </c>
       <c r="AG6" s="7">
-        <f t="shared" ref="AG6" si="8" xml:space="preserve"> (I6 * U6 * 60) / 1000</f>
-        <v>1.3176000000000001</v>
+        <f t="shared" ref="AG6" si="8" xml:space="preserve"> (I6 * U6 * 60) / 3600</f>
+        <v>0.36600000000000005</v>
       </c>
       <c r="AH6" s="7">
-        <f t="shared" ref="AH6" si="9" xml:space="preserve"> (J6 * V6 * 60) / 1000</f>
-        <v>0.8418000000000001</v>
+        <f t="shared" ref="AH6" si="9" xml:space="preserve"> (J6 * V6 * 60) / 3600</f>
+        <v>0.23383333333333337</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>1</v>
@@ -13050,40 +13085,40 @@
         <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <f xml:space="preserve"> (B10 * N10 * 60) / 1000</f>
-        <v>2.6903999999999995</v>
+        <f xml:space="preserve"> (B10 * N10 * 60) / 3600</f>
+        <v>0.74733333333333318</v>
       </c>
       <c r="AA10" s="7">
-        <f t="shared" ref="AA10:AH10" si="16" xml:space="preserve"> (C10 * O10 * 60) / 1000</f>
-        <v>1.6919999999999999</v>
+        <f t="shared" ref="AA10:AA11" si="16" xml:space="preserve"> (C10 * O10 * 60) / 3600</f>
+        <v>0.47</v>
       </c>
       <c r="AB10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.3206000000000002</v>
+        <f t="shared" ref="AB10:AB11" si="17" xml:space="preserve"> (D10 * P10 * 60) / 3600</f>
+        <v>0.36683333333333334</v>
       </c>
       <c r="AC10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.6973999999999998</v>
+        <f t="shared" ref="AC10:AC11" si="18" xml:space="preserve"> (E10 * Q10 * 60) / 3600</f>
+        <v>0.47149999999999997</v>
       </c>
       <c r="AD10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.2834000000000001</v>
+        <f t="shared" ref="AD10:AD11" si="19" xml:space="preserve"> (F10 * R10 * 60) / 3600</f>
+        <v>0.35650000000000004</v>
       </c>
       <c r="AE10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.8059999999999998</v>
+        <f t="shared" ref="AE10:AE11" si="20" xml:space="preserve"> (G10 * S10 * 60) / 3600</f>
+        <v>0.50166666666666659</v>
       </c>
       <c r="AF10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.26</v>
+        <f t="shared" ref="AF10:AF11" si="21" xml:space="preserve"> (H10 * T10 * 60) / 3600</f>
+        <v>0.35</v>
       </c>
       <c r="AG10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.7465999999999999</v>
+        <f t="shared" ref="AG10:AG11" si="22" xml:space="preserve"> (I10 * U10 * 60) / 3600</f>
+        <v>0.48516666666666663</v>
       </c>
       <c r="AH10" s="7">
-        <f t="shared" si="16"/>
-        <v>1.4057999999999999</v>
+        <f t="shared" ref="AH10:AH11" si="23" xml:space="preserve"> (J10 * V10 * 60) / 3600</f>
+        <v>0.39050000000000001</v>
       </c>
       <c r="AK10" s="3" t="s">
         <v>0</v>
@@ -13093,31 +13128,31 @@
         <v>1</v>
       </c>
       <c r="AM10" s="7">
-        <f t="shared" ref="AM10:AM11" si="17">$N12/O12</f>
+        <f t="shared" ref="AM10:AM11" si="24">$N12/O12</f>
         <v>1.9666666666666666</v>
       </c>
       <c r="AN10" s="7">
-        <f t="shared" ref="AN10:AN11" si="18">$N12/P12</f>
+        <f t="shared" ref="AN10:AN11" si="25">$N12/P12</f>
         <v>3.8064516129032255</v>
       </c>
       <c r="AO10" s="7">
-        <f t="shared" ref="AO10:AO11" si="19">$N12/Q12</f>
+        <f t="shared" ref="AO10:AO11" si="26">$N12/Q12</f>
         <v>2.8780487804878048</v>
       </c>
       <c r="AP10" s="7">
-        <f t="shared" ref="AP10:AP11" si="20">$N12/R12</f>
+        <f t="shared" ref="AP10:AP11" si="27">$N12/R12</f>
         <v>3.8064516129032255</v>
       </c>
       <c r="AQ10" s="7">
-        <f t="shared" ref="AQ10" si="21">$N12/S12</f>
+        <f t="shared" ref="AQ10" si="28">$N12/S12</f>
         <v>2.7441860465116279</v>
       </c>
       <c r="AR10" s="7">
-        <f t="shared" ref="AR10:AR11" si="22">$N12/T12</f>
+        <f t="shared" ref="AR10:AR11" si="29">$N12/T12</f>
         <v>3.9333333333333331</v>
       </c>
       <c r="AS10" s="7">
-        <f t="shared" ref="AS10:AS11" si="23">$N12/U12</f>
+        <f t="shared" ref="AS10:AS11" si="30">$N12/U12</f>
         <v>2.8780487804878048</v>
       </c>
       <c r="AT10" s="7">
@@ -13199,40 +13234,40 @@
         <v>1</v>
       </c>
       <c r="Z11" s="7">
-        <f xml:space="preserve"> (B11 * N11 * 60) / 1000</f>
-        <v>5.676000000000001</v>
+        <f xml:space="preserve"> (B11 * N11 * 60) / 3600</f>
+        <v>1.5766666666666669</v>
       </c>
       <c r="AA11" s="7">
-        <f t="shared" ref="AA11" si="24" xml:space="preserve"> (C11 * O11 * 60) / 1000</f>
-        <v>3.1512000000000002</v>
+        <f t="shared" si="16"/>
+        <v>0.87533333333333341</v>
       </c>
       <c r="AB11" s="7">
-        <f t="shared" ref="AB11" si="25" xml:space="preserve"> (D11 * P11 * 60) / 1000</f>
-        <v>2.52</v>
+        <f t="shared" si="17"/>
+        <v>0.7</v>
       </c>
       <c r="AC11" s="7">
-        <f t="shared" ref="AC11" si="26" xml:space="preserve"> (E11 * Q11 * 60) / 1000</f>
-        <v>2.4180000000000006</v>
+        <f t="shared" si="18"/>
+        <v>0.67166666666666675</v>
       </c>
       <c r="AD11" s="7">
-        <f t="shared" ref="AD11" si="27" xml:space="preserve"> (F11 * R11 * 60) / 1000</f>
-        <v>2.0496000000000003</v>
+        <f t="shared" si="19"/>
+        <v>0.56933333333333347</v>
       </c>
       <c r="AE11" s="7">
-        <f t="shared" ref="AE11" si="28" xml:space="preserve"> (G11 * S11 * 60) / 1000</f>
-        <v>1.8</v>
+        <f t="shared" si="20"/>
+        <v>0.5</v>
       </c>
       <c r="AF11" s="7">
-        <f t="shared" ref="AF11" si="29" xml:space="preserve"> (H11 * T11 * 60) / 1000</f>
-        <v>1.0980000000000001</v>
+        <f t="shared" si="21"/>
+        <v>0.30499999999999999</v>
       </c>
       <c r="AG11" s="7">
-        <f t="shared" ref="AG11" si="30" xml:space="preserve"> (I11 * U11 * 60) / 1000</f>
-        <v>1.4759999999999998</v>
+        <f t="shared" si="22"/>
+        <v>0.40999999999999992</v>
       </c>
       <c r="AH11" s="7">
-        <f t="shared" ref="AH11" si="31" xml:space="preserve"> (J11 * V11 * 60) / 1000</f>
-        <v>1.302</v>
+        <f t="shared" si="23"/>
+        <v>0.36166666666666669</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>1</v>
@@ -13242,19 +13277,19 @@
         <v>1</v>
       </c>
       <c r="AM11" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2.1782178217821784</v>
       </c>
       <c r="AN11" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>3.1428571428571432</v>
       </c>
       <c r="AO11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>3.3846153846153846</v>
       </c>
       <c r="AP11" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>3.9285714285714284</v>
       </c>
       <c r="AQ11" s="7">
@@ -13262,11 +13297,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="AR11" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>7.3333333333333339</v>
       </c>
       <c r="AS11" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5.3658536585365857</v>
       </c>
       <c r="AT11" s="7">
@@ -13564,40 +13599,40 @@
         <v>0</v>
       </c>
       <c r="Z15" s="7">
-        <f xml:space="preserve"> (B15 * N15 * 60) / 1000</f>
-        <v>9.0744000000000007</v>
+        <f xml:space="preserve"> (B15 * N15 * 60) / 3600</f>
+        <v>2.5206666666666671</v>
       </c>
       <c r="AA15" s="7">
-        <f t="shared" ref="AA15:AA16" si="32" xml:space="preserve"> (C15 * O15 * 60) / 1000</f>
-        <v>5.7245999999999997</v>
+        <f t="shared" ref="AA15:AA16" si="31" xml:space="preserve"> (C15 * O15 * 60) / 3600</f>
+        <v>1.5901666666666665</v>
       </c>
       <c r="AB15" s="7">
-        <f t="shared" ref="AB15:AB16" si="33" xml:space="preserve"> (D15 * P15 * 60) / 1000</f>
-        <v>4.5360000000000005</v>
+        <f t="shared" ref="AB15:AB16" si="32" xml:space="preserve"> (D15 * P15 * 60) / 3600</f>
+        <v>1.2600000000000002</v>
       </c>
       <c r="AC15" s="7">
-        <f t="shared" ref="AC15:AC16" si="34" xml:space="preserve"> (E15 * Q15 * 60) / 1000</f>
-        <v>6.2712000000000003</v>
+        <f t="shared" ref="AC15:AC16" si="33" xml:space="preserve"> (E15 * Q15 * 60) / 3600</f>
+        <v>1.7420000000000002</v>
       </c>
       <c r="AD15" s="7">
-        <f t="shared" ref="AD15:AD16" si="35" xml:space="preserve"> (F15 * R15 * 60) / 1000</f>
-        <v>4.9560000000000004</v>
+        <f t="shared" ref="AD15:AD16" si="34" xml:space="preserve"> (F15 * R15 * 60) / 3600</f>
+        <v>1.3766666666666667</v>
       </c>
       <c r="AE15" s="7">
-        <f t="shared" ref="AE15:AE16" si="36" xml:space="preserve"> (G15 * S15 * 60) / 1000</f>
-        <v>5.3250000000000002</v>
+        <f t="shared" ref="AE15:AE16" si="35" xml:space="preserve"> (G15 * S15 * 60) / 3600</f>
+        <v>1.4791666666666667</v>
       </c>
       <c r="AF15" s="7">
-        <f t="shared" ref="AF15:AF16" si="37" xml:space="preserve"> (H15 * T15 * 60) / 1000</f>
-        <v>5.5295999999999994</v>
+        <f t="shared" ref="AF15:AF16" si="36" xml:space="preserve"> (H15 * T15 * 60) / 3600</f>
+        <v>1.5359999999999998</v>
       </c>
       <c r="AG15" s="7">
-        <f t="shared" ref="AG15:AG16" si="38" xml:space="preserve"> (I15 * U15 * 60) / 1000</f>
-        <v>4.871999999999999</v>
+        <f t="shared" ref="AG15:AG16" si="37" xml:space="preserve"> (I15 * U15 * 60) / 3600</f>
+        <v>1.3533333333333331</v>
       </c>
       <c r="AH15" s="7">
-        <f t="shared" ref="AH15:AH16" si="39" xml:space="preserve"> (J15 * V15 * 60) / 1000</f>
-        <v>5.4432</v>
+        <f t="shared" ref="AH15:AH16" si="38" xml:space="preserve"> (J15 * V15 * 60) / 3600</f>
+        <v>1.512</v>
       </c>
       <c r="AK15" s="3" t="s">
         <v>0</v>
@@ -13607,31 +13642,31 @@
         <v>1</v>
       </c>
       <c r="AM15" s="7">
-        <f t="shared" ref="AM15:AM16" si="40">$N17/O17</f>
+        <f t="shared" ref="AM15:AM16" si="39">$N17/O17</f>
         <v>1.9605911330049264</v>
       </c>
       <c r="AN15" s="7">
-        <f t="shared" ref="AN15:AN16" si="41">$N17/P17</f>
+        <f t="shared" ref="AN15:AN16" si="40">$N17/P17</f>
         <v>3.7904761904761903</v>
       </c>
       <c r="AO15" s="7">
-        <f t="shared" ref="AO15:AO16" si="42">$N17/Q17</f>
+        <f t="shared" ref="AO15:AO16" si="41">$N17/Q17</f>
         <v>2.5512820512820511</v>
       </c>
       <c r="AP15" s="7">
-        <f t="shared" ref="AP15:AP16" si="43">$N17/R17</f>
+        <f t="shared" ref="AP15:AP16" si="42">$N17/R17</f>
         <v>3.3728813559322037</v>
       </c>
       <c r="AQ15" s="7">
-        <f t="shared" ref="AQ15" si="44">$N17/S17</f>
+        <f t="shared" ref="AQ15" si="43">$N17/S17</f>
         <v>3.1840000000000002</v>
       </c>
       <c r="AR15" s="7">
-        <f t="shared" ref="AR15:AR16" si="45">$N17/T17</f>
+        <f t="shared" ref="AR15:AR16" si="44">$N17/T17</f>
         <v>3.109375</v>
       </c>
       <c r="AS15" s="7">
-        <f t="shared" ref="AS15:AS16" si="46">$N17/U17</f>
+        <f t="shared" ref="AS15:AS16" si="45">$N17/U17</f>
         <v>3.431034482758621</v>
       </c>
       <c r="AT15" s="7">
@@ -13713,40 +13748,40 @@
         <v>1</v>
       </c>
       <c r="Z16" s="7">
-        <f xml:space="preserve"> (B16 * N16 * 60) / 1000</f>
-        <v>17.4924</v>
+        <f xml:space="preserve"> (B16 * N16 * 60) / 3600</f>
+        <v>4.859</v>
       </c>
       <c r="AA16" s="7">
+        <f t="shared" si="31"/>
+        <v>3.5863333333333332</v>
+      </c>
+      <c r="AB16" s="7">
         <f t="shared" si="32"/>
-        <v>12.9108</v>
-      </c>
-      <c r="AB16" s="7">
+        <v>2.3108333333333335</v>
+      </c>
+      <c r="AC16" s="7">
         <f t="shared" si="33"/>
-        <v>8.3190000000000008</v>
-      </c>
-      <c r="AC16" s="7">
+        <v>2.0944999999999996</v>
+      </c>
+      <c r="AD16" s="7">
         <f t="shared" si="34"/>
-        <v>7.5401999999999987</v>
-      </c>
-      <c r="AD16" s="7">
+        <v>1.7791666666666666</v>
+      </c>
+      <c r="AE16" s="7">
         <f t="shared" si="35"/>
-        <v>6.4050000000000002</v>
-      </c>
-      <c r="AE16" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="AF16" s="7">
         <f t="shared" si="36"/>
-        <v>5.22</v>
-      </c>
-      <c r="AF16" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="AG16" s="7">
         <f t="shared" si="37"/>
-        <v>5.4</v>
-      </c>
-      <c r="AG16" s="7">
+        <v>1.5166666666666666</v>
+      </c>
+      <c r="AH16" s="7">
         <f t="shared" si="38"/>
-        <v>5.46</v>
-      </c>
-      <c r="AH16" s="7">
-        <f t="shared" si="39"/>
-        <v>5.673</v>
+        <v>1.5758333333333334</v>
       </c>
       <c r="AK16" s="4" t="s">
         <v>1</v>
@@ -13756,19 +13791,19 @@
         <v>1</v>
       </c>
       <c r="AM16" s="7">
+        <f t="shared" si="39"/>
+        <v>1.6699507389162564</v>
+      </c>
+      <c r="AN16" s="7">
         <f t="shared" si="40"/>
-        <v>1.6699507389162564</v>
-      </c>
-      <c r="AN16" s="7">
+        <v>2.8851063829787233</v>
+      </c>
+      <c r="AO16" s="7">
         <f t="shared" si="41"/>
-        <v>2.8851063829787233</v>
-      </c>
-      <c r="AO16" s="7">
+        <v>3.183098591549296</v>
+      </c>
+      <c r="AP16" s="7">
         <f t="shared" si="42"/>
-        <v>3.183098591549296</v>
-      </c>
-      <c r="AP16" s="7">
-        <f t="shared" si="43"/>
         <v>3.8742857142857146</v>
       </c>
       <c r="AQ16" s="7">
@@ -13776,11 +13811,11 @@
         <v>4.6758620689655173</v>
       </c>
       <c r="AR16" s="7">
+        <f t="shared" si="44"/>
+        <v>4.5200000000000005</v>
+      </c>
+      <c r="AS16" s="7">
         <f t="shared" si="45"/>
-        <v>4.5200000000000005</v>
-      </c>
-      <c r="AS16" s="7">
-        <f t="shared" si="46"/>
         <v>4.8428571428571434</v>
       </c>
       <c r="AT16" s="7">
@@ -14078,40 +14113,40 @@
         <v>0</v>
       </c>
       <c r="Z20" s="7">
-        <f xml:space="preserve"> (B20 * N20 * 60) / 1000</f>
-        <v>5.9904000000000002</v>
+        <f xml:space="preserve"> (B20 * N20 * 60) / 3600</f>
+        <v>1.6640000000000001</v>
       </c>
       <c r="AA20" s="7">
-        <f t="shared" ref="AA20:AA21" si="47" xml:space="preserve"> (C20 * O20 * 60) / 1000</f>
-        <v>3.7728000000000002</v>
+        <f t="shared" ref="AA20:AA21" si="46" xml:space="preserve"> (C20 * O20 * 60) / 3600</f>
+        <v>1.048</v>
       </c>
       <c r="AB20" s="7">
-        <f t="shared" ref="AB20:AB21" si="48" xml:space="preserve"> (D20 * P20 * 60) / 1000</f>
-        <v>2.9375999999999998</v>
+        <f t="shared" ref="AB20:AB21" si="47" xml:space="preserve"> (D20 * P20 * 60) / 3600</f>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AC20" s="7">
-        <f t="shared" ref="AC20:AC21" si="49" xml:space="preserve"> (E20 * Q20 * 60) / 1000</f>
-        <v>4.0602</v>
+        <f t="shared" ref="AC20:AC21" si="48" xml:space="preserve"> (E20 * Q20 * 60) / 3600</f>
+        <v>1.1278333333333335</v>
       </c>
       <c r="AD20" s="7">
-        <f t="shared" ref="AD20:AD21" si="50" xml:space="preserve"> (F20 * R20 * 60) / 1000</f>
-        <v>2.9375999999999998</v>
+        <f t="shared" ref="AD20:AD21" si="49" xml:space="preserve"> (F20 * R20 * 60) / 3600</f>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AE20" s="7">
-        <f t="shared" ref="AE20:AE21" si="51" xml:space="preserve"> (G20 * S20 * 60) / 1000</f>
-        <v>3.4020000000000001</v>
+        <f t="shared" ref="AE20:AE21" si="50" xml:space="preserve"> (G20 * S20 * 60) / 3600</f>
+        <v>0.94499999999999995</v>
       </c>
       <c r="AF20" s="7">
-        <f t="shared" ref="AF20:AF21" si="52" xml:space="preserve"> (H20 * T20 * 60) / 1000</f>
-        <v>2.8908</v>
+        <f t="shared" ref="AF20:AF21" si="51" xml:space="preserve"> (H20 * T20 * 60) / 3600</f>
+        <v>0.80300000000000005</v>
       </c>
       <c r="AG20" s="7">
-        <f t="shared" ref="AG20:AG21" si="53" xml:space="preserve"> (I20 * U20 * 60) / 1000</f>
-        <v>4.5156000000000001</v>
+        <f t="shared" ref="AG20:AG21" si="52" xml:space="preserve"> (I20 * U20 * 60) / 3600</f>
+        <v>1.2543333333333335</v>
       </c>
       <c r="AH20" s="7">
-        <f t="shared" ref="AH20:AH21" si="54" xml:space="preserve"> (J20 * V20 * 60) / 1000</f>
-        <v>3.1974</v>
+        <f t="shared" ref="AH20:AH21" si="53" xml:space="preserve"> (J20 * V20 * 60) / 3600</f>
+        <v>0.88816666666666666</v>
       </c>
       <c r="AK20" s="3" t="s">
         <v>0</v>
@@ -14121,31 +14156,31 @@
         <v>1</v>
       </c>
       <c r="AM20" s="7">
-        <f t="shared" ref="AM20:AM21" si="55">$N22/O22</f>
+        <f t="shared" ref="AM20:AM21" si="54">$N22/O22</f>
         <v>1.9541984732824427</v>
       </c>
       <c r="AN20" s="7">
-        <f t="shared" ref="AN20:AN21" si="56">$N22/P22</f>
+        <f t="shared" ref="AN20:AN21" si="55">$N22/P22</f>
         <v>3.7647058823529411</v>
       </c>
       <c r="AO20" s="7">
-        <f t="shared" ref="AO20:AO21" si="57">$N22/Q22</f>
+        <f t="shared" ref="AO20:AO21" si="56">$N22/Q22</f>
         <v>2.5346534653465347</v>
       </c>
       <c r="AP20" s="7">
-        <f t="shared" ref="AP20:AP21" si="58">$N22/R22</f>
+        <f t="shared" ref="AP20:AP21" si="57">$N22/R22</f>
         <v>3.7647058823529411</v>
       </c>
       <c r="AQ20" s="7">
-        <f t="shared" ref="AQ20" si="59">$N22/S22</f>
+        <f t="shared" ref="AQ20" si="58">$N22/S22</f>
         <v>3.1604938271604937</v>
       </c>
       <c r="AR20" s="7">
-        <f t="shared" ref="AR20:AR21" si="60">$N22/T22</f>
+        <f t="shared" ref="AR20:AR21" si="59">$N22/T22</f>
         <v>3.8787878787878789</v>
       </c>
       <c r="AS20" s="7">
-        <f t="shared" ref="AS20:AS21" si="61">$N22/U22</f>
+        <f t="shared" ref="AS20:AS21" si="60">$N22/U22</f>
         <v>2.4150943396226414</v>
       </c>
       <c r="AT20" s="7">
@@ -14227,40 +14262,40 @@
         <v>1</v>
       </c>
       <c r="Z21" s="7">
-        <f xml:space="preserve"> (B21 * N21 * 60) / 1000</f>
-        <v>12.302400000000002</v>
+        <f xml:space="preserve"> (B21 * N21 * 60) / 3600</f>
+        <v>3.4173333333333336</v>
       </c>
       <c r="AA21" s="7">
+        <f t="shared" si="46"/>
+        <v>2.4114999999999998</v>
+      </c>
+      <c r="AB21" s="7">
         <f t="shared" si="47"/>
-        <v>8.6814</v>
-      </c>
-      <c r="AB21" s="7">
+        <v>1.5340000000000003</v>
+      </c>
+      <c r="AC21" s="7">
         <f t="shared" si="48"/>
-        <v>5.5224000000000002</v>
-      </c>
-      <c r="AC21" s="7">
+        <v>1.1025</v>
+      </c>
+      <c r="AD21" s="7">
         <f t="shared" si="49"/>
-        <v>3.9690000000000003</v>
-      </c>
-      <c r="AD21" s="7">
+        <v>1.1996666666666664</v>
+      </c>
+      <c r="AE21" s="7">
         <f t="shared" si="50"/>
-        <v>4.3187999999999995</v>
-      </c>
-      <c r="AE21" s="7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="AF21" s="7">
         <f t="shared" si="51"/>
-        <v>3.1104000000000003</v>
-      </c>
-      <c r="AF21" s="7">
+        <v>1.0953333333333333</v>
+      </c>
+      <c r="AG21" s="7">
         <f t="shared" si="52"/>
-        <v>3.9432</v>
-      </c>
-      <c r="AG21" s="7">
+        <v>0.78533333333333333</v>
+      </c>
+      <c r="AH21" s="7">
         <f t="shared" si="53"/>
-        <v>2.8271999999999999</v>
-      </c>
-      <c r="AH21" s="7">
-        <f t="shared" si="54"/>
-        <v>2.7450000000000001</v>
+        <v>0.76249999999999996</v>
       </c>
       <c r="AK21" s="4" t="s">
         <v>1</v>
@@ -14270,19 +14305,19 @@
         <v>1</v>
       </c>
       <c r="AM21" s="7">
+        <f t="shared" si="54"/>
+        <v>1.7069597069597071</v>
+      </c>
+      <c r="AN21" s="7">
         <f t="shared" si="55"/>
-        <v>1.7069597069597071</v>
-      </c>
-      <c r="AN21" s="7">
+        <v>2.9871794871794872</v>
+      </c>
+      <c r="AO21" s="7">
         <f t="shared" si="56"/>
-        <v>2.9871794871794872</v>
-      </c>
-      <c r="AO21" s="7">
+        <v>4.4380952380952383</v>
+      </c>
+      <c r="AP21" s="7">
         <f t="shared" si="57"/>
-        <v>4.4380952380952383</v>
-      </c>
-      <c r="AP21" s="7">
-        <f t="shared" si="58"/>
         <v>3.9491525423728815</v>
       </c>
       <c r="AQ21" s="7">
@@ -14290,11 +14325,11 @@
         <v>5.7530864197530862</v>
       </c>
       <c r="AR21" s="7">
+        <f t="shared" si="59"/>
+        <v>4.3962264150943398</v>
+      </c>
+      <c r="AS21" s="7">
         <f t="shared" si="60"/>
-        <v>4.3962264150943398</v>
-      </c>
-      <c r="AS21" s="7">
-        <f t="shared" si="61"/>
         <v>6.1315789473684212</v>
       </c>
       <c r="AT21" s="7">
@@ -14592,40 +14627,40 @@
         <v>0</v>
       </c>
       <c r="Z25" s="7">
-        <f xml:space="preserve"> (B25 * N25 * 60) / 1000</f>
-        <v>16.403399999999998</v>
+        <f xml:space="preserve"> (B25 * N25 * 60) / 3600</f>
+        <v>4.5564999999999998</v>
       </c>
       <c r="AA25" s="7">
-        <f t="shared" ref="AA25:AA26" si="62" xml:space="preserve"> (C25 * O25 * 60) / 1000</f>
-        <v>10.252799999999999</v>
+        <f t="shared" ref="AA25:AA26" si="61" xml:space="preserve"> (C25 * O25 * 60) / 3600</f>
+        <v>2.8479999999999999</v>
       </c>
       <c r="AB25" s="7">
-        <f t="shared" ref="AB25:AB26" si="63" xml:space="preserve"> (D25 * P25 * 60) / 1000</f>
-        <v>7.6859999999999999</v>
+        <f t="shared" ref="AB25:AB26" si="62" xml:space="preserve"> (D25 * P25 * 60) / 3600</f>
+        <v>2.1349999999999998</v>
       </c>
       <c r="AC25" s="7">
-        <f t="shared" ref="AC25:AC26" si="64" xml:space="preserve"> (E25 * Q25 * 60) / 1000</f>
-        <v>9.7889999999999979</v>
+        <f t="shared" ref="AC25:AC26" si="63" xml:space="preserve"> (E25 * Q25 * 60) / 3600</f>
+        <v>2.7191666666666663</v>
       </c>
       <c r="AD25" s="7">
-        <f t="shared" ref="AD25:AD26" si="65" xml:space="preserve"> (F25 * R25 * 60) / 1000</f>
-        <v>9.4248000000000012</v>
+        <f t="shared" ref="AD25:AD26" si="64" xml:space="preserve"> (F25 * R25 * 60) / 3600</f>
+        <v>2.6180000000000003</v>
       </c>
       <c r="AE25" s="7">
-        <f t="shared" ref="AE25:AE26" si="66" xml:space="preserve"> (G25 * S25 * 60) / 1000</f>
-        <v>11.3424</v>
+        <f t="shared" ref="AE25:AE26" si="65" xml:space="preserve"> (G25 * S25 * 60) / 3600</f>
+        <v>3.1506666666666665</v>
       </c>
       <c r="AF25" s="7">
-        <f t="shared" ref="AF25:AF26" si="67" xml:space="preserve"> (H25 * T25 * 60) / 1000</f>
-        <v>10.905599999999998</v>
+        <f t="shared" ref="AF25:AF26" si="66" xml:space="preserve"> (H25 * T25 * 60) / 3600</f>
+        <v>3.0293333333333328</v>
       </c>
       <c r="AG25" s="7">
-        <f t="shared" ref="AG25:AG26" si="68" xml:space="preserve"> (I25 * U25 * 60) / 1000</f>
-        <v>10.4796</v>
+        <f t="shared" ref="AG25:AG26" si="67" xml:space="preserve"> (I25 * U25 * 60) / 3600</f>
+        <v>2.911</v>
       </c>
       <c r="AH25" s="7">
-        <f t="shared" ref="AH25:AH26" si="69" xml:space="preserve"> (J25 * V25 * 60) / 1000</f>
-        <v>11.232000000000001</v>
+        <f t="shared" ref="AH25:AH26" si="68" xml:space="preserve"> (J25 * V25 * 60) / 3600</f>
+        <v>3.1200000000000006</v>
       </c>
       <c r="AK25" s="3" t="s">
         <v>0</v>
@@ -14635,31 +14670,31 @@
         <v>1</v>
       </c>
       <c r="AM25" s="7">
-        <f t="shared" ref="AM25:AM26" si="70">$N27/O27</f>
+        <f t="shared" ref="AM25:AM26" si="69">$N27/O27</f>
         <v>1.9691011235955056</v>
       </c>
       <c r="AN25" s="7">
-        <f t="shared" ref="AN25:AN26" si="71">$N27/P27</f>
+        <f t="shared" ref="AN25:AN26" si="70">$N27/P27</f>
         <v>3.8306010928961745</v>
       </c>
       <c r="AO25" s="7">
-        <f t="shared" ref="AO25:AO26" si="72">$N27/Q27</f>
+        <f t="shared" ref="AO25:AO26" si="71">$N27/Q27</f>
         <v>2.7928286852589643</v>
       </c>
       <c r="AP25" s="7">
-        <f t="shared" ref="AP25:AP26" si="73">$N27/R27</f>
+        <f t="shared" ref="AP25:AP26" si="72">$N27/R27</f>
         <v>3.0346320346320343</v>
       </c>
       <c r="AQ25" s="7">
-        <f t="shared" ref="AQ25" si="74">$N27/S27</f>
+        <f t="shared" ref="AQ25" si="73">$N27/S27</f>
         <v>2.52158273381295</v>
       </c>
       <c r="AR25" s="7">
-        <f t="shared" ref="AR25:AR26" si="75">$N27/T27</f>
+        <f t="shared" ref="AR25:AR26" si="74">$N27/T27</f>
         <v>2.73828125</v>
       </c>
       <c r="AS25" s="7">
-        <f t="shared" ref="AS25:AS26" si="76">$N27/U27</f>
+        <f t="shared" ref="AS25:AS26" si="75">$N27/U27</f>
         <v>2.8495934959349594</v>
       </c>
       <c r="AT25" s="7">
@@ -14741,40 +14776,40 @@
         <v>1</v>
       </c>
       <c r="Z26" s="7">
-        <f xml:space="preserve"> (B26 * N26 * 60) / 1000</f>
-        <v>31.759800000000002</v>
+        <f xml:space="preserve"> (B26 * N26 * 60) / 3600</f>
+        <v>8.8221666666666678</v>
       </c>
       <c r="AA26" s="7">
+        <f t="shared" si="61"/>
+        <v>6.1038333333333341</v>
+      </c>
+      <c r="AB26" s="7">
         <f t="shared" si="62"/>
-        <v>21.973800000000004</v>
-      </c>
-      <c r="AB26" s="7">
+        <v>4.3070000000000004</v>
+      </c>
+      <c r="AC26" s="7">
         <f t="shared" si="63"/>
-        <v>15.5052</v>
-      </c>
-      <c r="AC26" s="7">
+        <v>2.8123333333333331</v>
+      </c>
+      <c r="AD26" s="7">
         <f t="shared" si="64"/>
-        <v>10.1244</v>
-      </c>
-      <c r="AD26" s="7">
+        <v>3.2025000000000001</v>
+      </c>
+      <c r="AE26" s="7">
         <f t="shared" si="65"/>
-        <v>11.529</v>
-      </c>
-      <c r="AE26" s="7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AF26" s="7">
         <f t="shared" si="66"/>
-        <v>8.7479999999999993</v>
-      </c>
-      <c r="AF26" s="7">
+        <v>3.0719999999999996</v>
+      </c>
+      <c r="AG26" s="7">
         <f t="shared" si="67"/>
-        <v>11.059199999999999</v>
-      </c>
-      <c r="AG26" s="7">
+        <v>2.4283333333333337</v>
+      </c>
+      <c r="AH26" s="7">
         <f t="shared" si="68"/>
-        <v>8.7420000000000027</v>
-      </c>
-      <c r="AH26" s="7">
-        <f t="shared" si="69"/>
-        <v>11.2728</v>
+        <v>3.1313333333333331</v>
       </c>
       <c r="AK26" s="4" t="s">
         <v>1</v>
@@ -14784,19 +14819,19 @@
         <v>1</v>
       </c>
       <c r="AM26" s="7">
+        <f t="shared" si="69"/>
+        <v>1.7814761215629522</v>
+      </c>
+      <c r="AN26" s="7">
         <f t="shared" si="70"/>
-        <v>1.7814761215629522</v>
-      </c>
-      <c r="AN26" s="7">
+        <v>2.810502283105023</v>
+      </c>
+      <c r="AO26" s="7">
         <f t="shared" si="71"/>
-        <v>2.810502283105023</v>
-      </c>
-      <c r="AO26" s="7">
+        <v>4.3041958041958042</v>
+      </c>
+      <c r="AP26" s="7">
         <f t="shared" si="72"/>
-        <v>4.3041958041958042</v>
-      </c>
-      <c r="AP26" s="7">
-        <f t="shared" si="73"/>
         <v>3.9079365079365083</v>
       </c>
       <c r="AQ26" s="7">
@@ -14804,11 +14839,11 @@
         <v>5.0658436213991767</v>
       </c>
       <c r="AR26" s="7">
+        <f t="shared" si="74"/>
+        <v>4.2743055555555562</v>
+      </c>
+      <c r="AS26" s="7">
         <f t="shared" si="75"/>
-        <v>4.2743055555555562</v>
-      </c>
-      <c r="AS26" s="7">
-        <f t="shared" si="76"/>
         <v>5.2382978723404259</v>
       </c>
       <c r="AT26" s="7">
@@ -15106,40 +15141,40 @@
         <v>0</v>
       </c>
       <c r="Z30" s="7">
-        <f xml:space="preserve"> (B30 * N30 * 60) / 1000</f>
-        <v>12.659400000000002</v>
+        <f xml:space="preserve"> (B30 * N30 * 60) / 3600</f>
+        <v>3.5165000000000006</v>
       </c>
       <c r="AA30" s="7">
-        <f t="shared" ref="AA30:AA31" si="77" xml:space="preserve"> (C30 * O30 * 60) / 1000</f>
-        <v>8.1143999999999981</v>
+        <f t="shared" ref="AA30:AA31" si="76" xml:space="preserve"> (C30 * O30 * 60) / 3600</f>
+        <v>2.2539999999999996</v>
       </c>
       <c r="AB30" s="7">
-        <f t="shared" ref="AB30:AB31" si="78" xml:space="preserve"> (D30 * P30 * 60) / 1000</f>
-        <v>6.1757999999999988</v>
+        <f t="shared" ref="AB30:AB31" si="77" xml:space="preserve"> (D30 * P30 * 60) / 3600</f>
+        <v>1.7154999999999998</v>
       </c>
       <c r="AC30" s="7">
-        <f t="shared" ref="AC30:AC31" si="79" xml:space="preserve"> (E30 * Q30 * 60) / 1000</f>
-        <v>7.9560000000000004</v>
+        <f t="shared" ref="AC30:AC31" si="78" xml:space="preserve"> (E30 * Q30 * 60) / 3600</f>
+        <v>2.21</v>
       </c>
       <c r="AD30" s="7">
-        <f t="shared" ref="AD30:AD31" si="80" xml:space="preserve"> (F30 * R30 * 60) / 1000</f>
-        <v>7.6895999999999995</v>
+        <f t="shared" ref="AD30:AD31" si="79" xml:space="preserve"> (F30 * R30 * 60) / 3600</f>
+        <v>2.1359999999999997</v>
       </c>
       <c r="AE30" s="7">
-        <f t="shared" ref="AE30:AE31" si="81" xml:space="preserve"> (G30 * S30 * 60) / 1000</f>
-        <v>9.0299999999999994</v>
+        <f t="shared" ref="AE30:AE31" si="80" xml:space="preserve"> (G30 * S30 * 60) / 3600</f>
+        <v>2.5083333333333333</v>
       </c>
       <c r="AF30" s="7">
-        <f t="shared" ref="AF30:AF31" si="82" xml:space="preserve"> (H30 * T30 * 60) / 1000</f>
-        <v>8.2079999999999984</v>
+        <f t="shared" ref="AF30:AF31" si="81" xml:space="preserve"> (H30 * T30 * 60) / 3600</f>
+        <v>2.2799999999999994</v>
       </c>
       <c r="AG30" s="7">
-        <f t="shared" ref="AG30:AG31" si="83" xml:space="preserve"> (I30 * U30 * 60) / 1000</f>
-        <v>7.4550000000000001</v>
+        <f t="shared" ref="AG30:AG31" si="82" xml:space="preserve"> (I30 * U30 * 60) / 3600</f>
+        <v>2.0708333333333333</v>
       </c>
       <c r="AH30" s="7">
-        <f t="shared" ref="AH30:AH31" si="84" xml:space="preserve"> (J30 * V30 * 60) / 1000</f>
-        <v>8.0154000000000014</v>
+        <f t="shared" ref="AH30:AH31" si="83" xml:space="preserve"> (J30 * V30 * 60) / 3600</f>
+        <v>2.2265000000000001</v>
       </c>
       <c r="AK30" s="3" t="s">
         <v>0</v>
@@ -15149,31 +15184,31 @@
         <v>1</v>
       </c>
       <c r="AM30" s="7">
-        <f t="shared" ref="AM30:AM31" si="85">$N32/O32</f>
+        <f t="shared" ref="AM30:AM31" si="84">$N32/O32</f>
         <v>1.9601449275362322</v>
       </c>
       <c r="AN30" s="7">
-        <f t="shared" ref="AN30:AN31" si="86">$N32/P32</f>
+        <f t="shared" ref="AN30:AN31" si="85">$N32/P32</f>
         <v>3.8368794326241136</v>
       </c>
       <c r="AO30" s="7">
-        <f t="shared" ref="AO30:AO31" si="87">$N32/Q32</f>
+        <f t="shared" ref="AO30:AO31" si="86">$N32/Q32</f>
         <v>2.7743589743589747</v>
       </c>
       <c r="AP30" s="7">
-        <f t="shared" ref="AP30:AP31" si="88">$N32/R32</f>
+        <f t="shared" ref="AP30:AP31" si="87">$N32/R32</f>
         <v>3.0393258426966292</v>
       </c>
       <c r="AQ30" s="7">
-        <f t="shared" ref="AQ30" si="89">$N32/S32</f>
+        <f t="shared" ref="AQ30" si="88">$N32/S32</f>
         <v>2.516279069767442</v>
       </c>
       <c r="AR30" s="7">
-        <f t="shared" ref="AR30:AR31" si="90">$N32/T32</f>
+        <f t="shared" ref="AR30:AR31" si="89">$N32/T32</f>
         <v>2.8473684210526318</v>
       </c>
       <c r="AS30" s="7">
-        <f t="shared" ref="AS30:AS31" si="91">$N32/U32</f>
+        <f t="shared" ref="AS30:AS31" si="90">$N32/U32</f>
         <v>3.0914285714285716</v>
       </c>
       <c r="AT30" s="7">
@@ -15255,40 +15290,40 @@
         <v>1</v>
       </c>
       <c r="Z31" s="7">
-        <f xml:space="preserve"> (B31 * N31 * 60) / 1000</f>
-        <v>25.607999999999997</v>
+        <f xml:space="preserve"> (B31 * N31 * 60) / 3600</f>
+        <v>7.1133333333333324</v>
       </c>
       <c r="AA31" s="7">
+        <f t="shared" si="76"/>
+        <v>3.8866666666666672</v>
+      </c>
+      <c r="AB31" s="7">
         <f t="shared" si="77"/>
-        <v>13.992000000000003</v>
-      </c>
-      <c r="AB31" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="AC31" s="7">
         <f t="shared" si="78"/>
-        <v>10.08</v>
-      </c>
-      <c r="AC31" s="7">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="AD31" s="7">
         <f t="shared" si="79"/>
-        <v>10.195199999999998</v>
-      </c>
-      <c r="AD31" s="7">
+        <v>2.3485</v>
+      </c>
+      <c r="AE31" s="7">
         <f t="shared" si="80"/>
-        <v>8.454600000000001</v>
-      </c>
-      <c r="AE31" s="7">
+        <v>1.869</v>
+      </c>
+      <c r="AF31" s="7">
         <f t="shared" si="81"/>
-        <v>6.7283999999999997</v>
-      </c>
-      <c r="AF31" s="7">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="AG31" s="7">
         <f t="shared" si="82"/>
-        <v>7.4088000000000003</v>
-      </c>
-      <c r="AG31" s="7">
+        <v>1.3965000000000001</v>
+      </c>
+      <c r="AH31" s="7">
         <f t="shared" si="83"/>
-        <v>5.027400000000001</v>
-      </c>
-      <c r="AH31" s="7">
-        <f t="shared" si="84"/>
-        <v>6.2369999999999992</v>
+        <v>1.7324999999999997</v>
       </c>
       <c r="AK31" s="4" t="s">
         <v>1</v>
@@ -15298,19 +15333,19 @@
         <v>1</v>
       </c>
       <c r="AM31" s="7">
+        <f t="shared" si="84"/>
+        <v>2.2045454545454541</v>
+      </c>
+      <c r="AN31" s="7">
         <f t="shared" si="85"/>
-        <v>2.2045454545454541</v>
-      </c>
-      <c r="AN31" s="7">
+        <v>3.4642857142857144</v>
+      </c>
+      <c r="AO31" s="7">
         <f t="shared" si="86"/>
-        <v>3.4642857142857144</v>
-      </c>
-      <c r="AO31" s="7">
+        <v>3.3680555555555554</v>
+      </c>
+      <c r="AP31" s="7">
         <f t="shared" si="87"/>
-        <v>3.3680555555555554</v>
-      </c>
-      <c r="AP31" s="7">
-        <f t="shared" si="88"/>
         <v>4.1991341991341988</v>
       </c>
       <c r="AQ31" s="7">
@@ -15318,11 +15353,11 @@
         <v>5.4494382022471903</v>
       </c>
       <c r="AR31" s="7">
+        <f t="shared" si="89"/>
+        <v>4.9489795918367347</v>
+      </c>
+      <c r="AS31" s="7">
         <f t="shared" si="90"/>
-        <v>4.9489795918367347</v>
-      </c>
-      <c r="AS31" s="7">
-        <f t="shared" si="91"/>
         <v>7.2932330827067657</v>
       </c>
       <c r="AT31" s="7">
@@ -15716,35 +15751,35 @@
         <v>0.97199999999999998</v>
       </c>
       <c r="AA45" s="7">
-        <f t="shared" ref="AA45:AA46" si="92" xml:space="preserve"> (C45 * O45 * 60) / 1000</f>
+        <f t="shared" ref="AA45:AA46" si="91" xml:space="preserve"> (C45 * O45 * 60) / 1000</f>
         <v>0.64860000000000007</v>
       </c>
       <c r="AB45" s="7">
-        <f t="shared" ref="AB45:AB46" si="93" xml:space="preserve"> (D45 * P45 * 60) / 1000</f>
+        <f t="shared" ref="AB45:AB46" si="92" xml:space="preserve"> (D45 * P45 * 60) / 1000</f>
         <v>0.4224</v>
       </c>
       <c r="AC45" s="7">
-        <f t="shared" ref="AC45:AC46" si="94" xml:space="preserve"> (E45 * Q45 * 60) / 1000</f>
+        <f t="shared" ref="AC45:AC46" si="93" xml:space="preserve"> (E45 * Q45 * 60) / 1000</f>
         <v>0.49920000000000003</v>
       </c>
       <c r="AD45" s="7">
-        <f t="shared" ref="AD45:AD46" si="95" xml:space="preserve"> (F45 * R45 * 60) / 1000</f>
+        <f t="shared" ref="AD45:AD46" si="94" xml:space="preserve"> (F45 * R45 * 60) / 1000</f>
         <v>0.49920000000000003</v>
       </c>
       <c r="AE45" s="7">
-        <f t="shared" ref="AE45:AE46" si="96" xml:space="preserve"> (G45 * S45 * 60) / 1000</f>
+        <f t="shared" ref="AE45:AE46" si="95" xml:space="preserve"> (G45 * S45 * 60) / 1000</f>
         <v>0.624</v>
       </c>
       <c r="AF45" s="7">
-        <f t="shared" ref="AF45:AF46" si="97" xml:space="preserve"> (H45 * T45 * 60) / 1000</f>
+        <f t="shared" ref="AF45:AF46" si="96" xml:space="preserve"> (H45 * T45 * 60) / 1000</f>
         <v>0.624</v>
       </c>
       <c r="AG45" s="7">
-        <f t="shared" ref="AG45:AG46" si="98" xml:space="preserve"> (I45 * U45 * 60) / 1000</f>
+        <f t="shared" ref="AG45:AG46" si="97" xml:space="preserve"> (I45 * U45 * 60) / 1000</f>
         <v>0.624</v>
       </c>
       <c r="AH45" s="7">
-        <f t="shared" ref="AH45:AH46" si="99" xml:space="preserve"> (J45 * V45 * 60) / 1000</f>
+        <f t="shared" ref="AH45:AH46" si="98" xml:space="preserve"> (J45 * V45 * 60) / 1000</f>
         <v>0.59399999999999997</v>
       </c>
       <c r="AK45" s="3" t="s">
@@ -15755,31 +15790,31 @@
         <v>1</v>
       </c>
       <c r="AM45" s="7">
-        <f t="shared" ref="AM45:AM46" si="100">$N47/O47</f>
+        <f t="shared" ref="AM45:AM46" si="99">$N47/O47</f>
         <v>1.9565217391304348</v>
       </c>
       <c r="AN45" s="7">
-        <f t="shared" ref="AN45:AN46" si="101">$N47/P47</f>
+        <f t="shared" ref="AN45:AN46" si="100">$N47/P47</f>
         <v>4.0909090909090908</v>
       </c>
       <c r="AO45" s="7">
-        <f t="shared" ref="AO45:AO46" si="102">$N47/Q47</f>
+        <f t="shared" ref="AO45:AO46" si="101">$N47/Q47</f>
         <v>3.4615384615384617</v>
       </c>
       <c r="AP45" s="7">
-        <f t="shared" ref="AP45:AP46" si="103">$N47/R47</f>
+        <f t="shared" ref="AP45:AP46" si="102">$N47/R47</f>
         <v>3.4615384615384617</v>
       </c>
       <c r="AQ45" s="7">
-        <f t="shared" ref="AQ45" si="104">$N47/S47</f>
+        <f t="shared" ref="AQ45" si="103">$N47/S47</f>
         <v>2.8125</v>
       </c>
       <c r="AR45" s="7">
-        <f t="shared" ref="AR45:AR46" si="105">$N47/T47</f>
+        <f t="shared" ref="AR45:AR46" si="104">$N47/T47</f>
         <v>2.8125</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" ref="AS45:AS46" si="106">$N47/U47</f>
+        <f t="shared" ref="AS45:AS46" si="105">$N47/U47</f>
         <v>2.8125</v>
       </c>
       <c r="AT45" s="7">
@@ -15856,35 +15891,35 @@
         <v>2.2680000000000002</v>
       </c>
       <c r="AA46" s="7">
+        <f t="shared" si="91"/>
+        <v>1.53</v>
+      </c>
+      <c r="AB46" s="7">
         <f t="shared" si="92"/>
-        <v>1.53</v>
-      </c>
-      <c r="AB46" s="7">
+        <v>0.98580000000000001</v>
+      </c>
+      <c r="AC46" s="7">
         <f t="shared" si="93"/>
-        <v>0.98580000000000001</v>
-      </c>
-      <c r="AC46" s="7">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="AD46" s="7">
         <f t="shared" si="94"/>
-        <v>0.66779999999999995</v>
-      </c>
-      <c r="AD46" s="7">
+        <v>0.67200000000000015</v>
+      </c>
+      <c r="AE46" s="7">
         <f t="shared" si="95"/>
-        <v>0.67200000000000015</v>
-      </c>
-      <c r="AE46" s="7">
+        <v>0.94080000000000008</v>
+      </c>
+      <c r="AF46" s="7">
         <f t="shared" si="96"/>
-        <v>0.94080000000000008</v>
-      </c>
-      <c r="AF46" s="7">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="AG46" s="7">
         <f t="shared" si="97"/>
-        <v>0.55679999999999996</v>
-      </c>
-      <c r="AG46" s="7">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AH46" s="7">
         <f t="shared" si="98"/>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="AH46" s="7">
-        <f t="shared" si="99"/>
         <v>0.54</v>
       </c>
       <c r="AK46" s="4" t="s">
@@ -15895,19 +15930,19 @@
         <v>1</v>
       </c>
       <c r="AM46" s="7">
+        <f t="shared" si="99"/>
+        <v>1.8</v>
+      </c>
+      <c r="AN46" s="7">
         <f t="shared" si="100"/>
-        <v>1.8</v>
-      </c>
-      <c r="AN46" s="7">
+        <v>2.903225806451613</v>
+      </c>
+      <c r="AO46" s="7">
         <f t="shared" si="101"/>
-        <v>2.903225806451613</v>
-      </c>
-      <c r="AO46" s="7">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="AP46" s="7">
         <f t="shared" si="102"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="AP46" s="7">
-        <f t="shared" si="103"/>
         <v>4.5</v>
       </c>
       <c r="AQ46" s="7">
@@ -15915,11 +15950,11 @@
         <v>3.214285714285714</v>
       </c>
       <c r="AR46" s="7">
+        <f t="shared" si="104"/>
+        <v>5.625</v>
+      </c>
+      <c r="AS46" s="7">
         <f t="shared" si="105"/>
-        <v>5.625</v>
-      </c>
-      <c r="AS46" s="7">
-        <f t="shared" si="106"/>
         <v>5.625</v>
       </c>
       <c r="AT46" s="7">
@@ -16212,35 +16247,35 @@
         <v>2.6640000000000001</v>
       </c>
       <c r="AA50" s="7">
-        <f t="shared" ref="AA50:AA51" si="107" xml:space="preserve"> (C50 * O50 * 60) / 1000</f>
+        <f t="shared" ref="AA50:AA51" si="106" xml:space="preserve"> (C50 * O50 * 60) / 1000</f>
         <v>1.6836</v>
       </c>
       <c r="AB50" s="7">
-        <f t="shared" ref="AB50:AB51" si="108" xml:space="preserve"> (D50 * P50 * 60) / 1000</f>
+        <f t="shared" ref="AB50:AB51" si="107" xml:space="preserve"> (D50 * P50 * 60) / 1000</f>
         <v>1.2090000000000001</v>
       </c>
       <c r="AC50" s="7">
-        <f t="shared" ref="AC50:AC51" si="109" xml:space="preserve"> (E50 * Q50 * 60) / 1000</f>
+        <f t="shared" ref="AC50:AC51" si="108" xml:space="preserve"> (E50 * Q50 * 60) / 1000</f>
         <v>1.2090000000000001</v>
       </c>
       <c r="AD50" s="7">
-        <f t="shared" ref="AD50:AD51" si="110" xml:space="preserve"> (F50 * R50 * 60) / 1000</f>
+        <f t="shared" ref="AD50:AD51" si="109" xml:space="preserve"> (F50 * R50 * 60) / 1000</f>
         <v>1.3068000000000002</v>
       </c>
       <c r="AE50" s="7">
-        <f t="shared" ref="AE50:AE51" si="111" xml:space="preserve"> (G50 * S50 * 60) / 1000</f>
+        <f t="shared" ref="AE50:AE51" si="110" xml:space="preserve"> (G50 * S50 * 60) / 1000</f>
         <v>1.6235999999999999</v>
       </c>
       <c r="AF50" s="7">
-        <f t="shared" ref="AF50:AF51" si="112" xml:space="preserve"> (H50 * T50 * 60) / 1000</f>
+        <f t="shared" ref="AF50:AF51" si="111" xml:space="preserve"> (H50 * T50 * 60) / 1000</f>
         <v>1.4279999999999997</v>
       </c>
       <c r="AG50" s="7">
-        <f t="shared" ref="AG50:AG51" si="113" xml:space="preserve"> (I50 * U50 * 60) / 1000</f>
+        <f t="shared" ref="AG50:AG51" si="112" xml:space="preserve"> (I50 * U50 * 60) / 1000</f>
         <v>1.8360000000000001</v>
       </c>
       <c r="AH50" s="7">
-        <f t="shared" ref="AH50:AH51" si="114" xml:space="preserve"> (J50 * V50 * 60) / 1000</f>
+        <f t="shared" ref="AH50:AH51" si="113" xml:space="preserve"> (J50 * V50 * 60) / 1000</f>
         <v>1.2647999999999999</v>
       </c>
       <c r="AK50" s="3" t="s">
@@ -16251,31 +16286,31 @@
         <v>1</v>
       </c>
       <c r="AM50" s="7">
-        <f t="shared" ref="AM50:AM51" si="115">$N52/O52</f>
+        <f t="shared" ref="AM50:AM51" si="114">$N52/O52</f>
         <v>1.9672131147540983</v>
       </c>
       <c r="AN50" s="7">
-        <f t="shared" ref="AN50:AN51" si="116">$N52/P52</f>
+        <f t="shared" ref="AN50:AN51" si="115">$N52/P52</f>
         <v>3.8709677419354835</v>
       </c>
       <c r="AO50" s="7">
-        <f t="shared" ref="AO50:AO51" si="117">$N52/Q52</f>
+        <f t="shared" ref="AO50:AO51" si="116">$N52/Q52</f>
         <v>3.8709677419354835</v>
       </c>
       <c r="AP50" s="7">
-        <f t="shared" ref="AP50:AP51" si="118">$N52/R52</f>
+        <f t="shared" ref="AP50:AP51" si="117">$N52/R52</f>
         <v>3.6363636363636362</v>
       </c>
       <c r="AQ50" s="7">
-        <f t="shared" ref="AQ50" si="119">$N52/S52</f>
+        <f t="shared" ref="AQ50" si="118">$N52/S52</f>
         <v>2.9268292682926829</v>
       </c>
       <c r="AR50" s="7">
-        <f t="shared" ref="AR50:AR51" si="120">$N52/T52</f>
+        <f t="shared" ref="AR50:AR51" si="119">$N52/T52</f>
         <v>3.4285714285714288</v>
       </c>
       <c r="AS50" s="7">
-        <f t="shared" ref="AS50:AS51" si="121">$N52/U52</f>
+        <f t="shared" ref="AS50:AS51" si="120">$N52/U52</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="AT50" s="7">
@@ -16352,35 +16387,35 @@
         <v>6.0629999999999997</v>
       </c>
       <c r="AA51" s="7">
+        <f t="shared" si="106"/>
+        <v>3.5255999999999994</v>
+      </c>
+      <c r="AB51" s="7">
         <f t="shared" si="107"/>
-        <v>3.5255999999999994</v>
-      </c>
-      <c r="AB51" s="7">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="AC51" s="7">
         <f t="shared" si="108"/>
-        <v>2.9159999999999999</v>
-      </c>
-      <c r="AC51" s="7">
+        <v>2.4708000000000001</v>
+      </c>
+      <c r="AD51" s="7">
         <f t="shared" si="109"/>
-        <v>2.4708000000000001</v>
-      </c>
-      <c r="AD51" s="7">
+        <v>1.4640000000000002</v>
+      </c>
+      <c r="AE51" s="7">
         <f t="shared" si="110"/>
-        <v>1.4640000000000002</v>
-      </c>
-      <c r="AE51" s="7">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="AF51" s="7">
         <f t="shared" si="111"/>
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="AF51" s="7">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="AG51" s="7">
         <f t="shared" si="112"/>
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="AG51" s="7">
+        <v>1.6836000000000002</v>
+      </c>
+      <c r="AH51" s="7">
         <f t="shared" si="113"/>
-        <v>1.6836000000000002</v>
-      </c>
-      <c r="AH51" s="7">
-        <f t="shared" si="114"/>
         <v>1.2078000000000002</v>
       </c>
       <c r="AK51" s="4" t="s">
@@ -16391,19 +16426,19 @@
         <v>1</v>
       </c>
       <c r="AM51" s="7">
+        <f t="shared" si="114"/>
+        <v>2.0796460176991154</v>
+      </c>
+      <c r="AN51" s="7">
         <f t="shared" si="115"/>
-        <v>2.0796460176991154</v>
-      </c>
-      <c r="AN51" s="7">
+        <v>2.9012345679012346</v>
+      </c>
+      <c r="AO51" s="7">
         <f t="shared" si="116"/>
-        <v>2.9012345679012346</v>
-      </c>
-      <c r="AO51" s="7">
+        <v>3.3098591549295779</v>
+      </c>
+      <c r="AP51" s="7">
         <f t="shared" si="117"/>
-        <v>3.3098591549295779</v>
-      </c>
-      <c r="AP51" s="7">
-        <f t="shared" si="118"/>
         <v>5.875</v>
       </c>
       <c r="AQ51" s="7">
@@ -16411,11 +16446,11 @@
         <v>4.0517241379310347</v>
       </c>
       <c r="AR51" s="7">
+        <f t="shared" si="119"/>
+        <v>4.4339622641509431</v>
+      </c>
+      <c r="AS51" s="7">
         <f t="shared" si="120"/>
-        <v>4.4339622641509431</v>
-      </c>
-      <c r="AS51" s="7">
-        <f t="shared" si="121"/>
         <v>5.1086956521739131</v>
       </c>
       <c r="AT51" s="7">
@@ -16708,35 +16743,35 @@
         <v>9.1427999999999994</v>
       </c>
       <c r="AA55" s="7">
-        <f t="shared" ref="AA55:AA56" si="122" xml:space="preserve"> (C55 * O55 * 60) / 1000</f>
+        <f t="shared" ref="AA55:AA56" si="121" xml:space="preserve"> (C55 * O55 * 60) / 1000</f>
         <v>5.7245999999999997</v>
       </c>
       <c r="AB55" s="7">
-        <f t="shared" ref="AB55:AB56" si="123" xml:space="preserve"> (D55 * P55 * 60) / 1000</f>
+        <f t="shared" ref="AB55:AB56" si="122" xml:space="preserve"> (D55 * P55 * 60) / 1000</f>
         <v>4.41</v>
       </c>
       <c r="AC55" s="7">
-        <f t="shared" ref="AC55:AC56" si="124" xml:space="preserve"> (E55 * Q55 * 60) / 1000</f>
+        <f t="shared" ref="AC55:AC56" si="123" xml:space="preserve"> (E55 * Q55 * 60) / 1000</f>
         <v>4.41</v>
       </c>
       <c r="AD55" s="7">
-        <f t="shared" ref="AD55:AD56" si="125" xml:space="preserve"> (F55 * R55 * 60) / 1000</f>
+        <f t="shared" ref="AD55:AD56" si="124" xml:space="preserve"> (F55 * R55 * 60) / 1000</f>
         <v>4.8989999999999991</v>
       </c>
       <c r="AE55" s="7">
-        <f t="shared" ref="AE55:AE56" si="126" xml:space="preserve"> (G55 * S55 * 60) / 1000</f>
+        <f t="shared" ref="AE55:AE56" si="125" xml:space="preserve"> (G55 * S55 * 60) / 1000</f>
         <v>5.0999999999999996</v>
       </c>
       <c r="AF55" s="7">
-        <f t="shared" ref="AF55:AF56" si="127" xml:space="preserve"> (H55 * T55 * 60) / 1000</f>
+        <f t="shared" ref="AF55:AF56" si="126" xml:space="preserve"> (H55 * T55 * 60) / 1000</f>
         <v>5.88</v>
       </c>
       <c r="AG55" s="7">
-        <f t="shared" ref="AG55:AG56" si="128" xml:space="preserve"> (I55 * U55 * 60) / 1000</f>
+        <f t="shared" ref="AG55:AG56" si="127" xml:space="preserve"> (I55 * U55 * 60) / 1000</f>
         <v>5.2919999999999998</v>
       </c>
       <c r="AH55" s="7">
-        <f t="shared" ref="AH55:AH56" si="129" xml:space="preserve"> (J55 * V55 * 60) / 1000</f>
+        <f t="shared" ref="AH55:AH56" si="128" xml:space="preserve"> (J55 * V55 * 60) / 1000</f>
         <v>5.25</v>
       </c>
       <c r="AK55" s="3" t="s">
@@ -16747,31 +16782,31 @@
         <v>1</v>
       </c>
       <c r="AM55" s="7">
-        <f t="shared" ref="AM55:AM56" si="130">$N57/O57</f>
+        <f t="shared" ref="AM55:AM56" si="129">$N57/O57</f>
         <v>1.975369458128079</v>
       </c>
       <c r="AN55" s="7">
-        <f t="shared" ref="AN55:AN56" si="131">$N57/P57</f>
+        <f t="shared" ref="AN55:AN56" si="130">$N57/P57</f>
         <v>3.8190476190476188</v>
       </c>
       <c r="AO55" s="7">
-        <f t="shared" ref="AO55:AO56" si="132">$N57/Q57</f>
+        <f t="shared" ref="AO55:AO56" si="131">$N57/Q57</f>
         <v>3.8190476190476188</v>
       </c>
       <c r="AP55" s="7">
-        <f t="shared" ref="AP55:AP56" si="133">$N57/R57</f>
+        <f t="shared" ref="AP55:AP56" si="132">$N57/R57</f>
         <v>3.4869565217391307</v>
       </c>
       <c r="AQ55" s="7">
-        <f t="shared" ref="AQ55" si="134">$N57/S57</f>
+        <f t="shared" ref="AQ55" si="133">$N57/S57</f>
         <v>3.2079999999999997</v>
       </c>
       <c r="AR55" s="7">
-        <f t="shared" ref="AR55:AR56" si="135">$N57/T57</f>
+        <f t="shared" ref="AR55:AR56" si="134">$N57/T57</f>
         <v>2.8642857142857143</v>
       </c>
       <c r="AS55" s="7">
-        <f t="shared" ref="AS55:AS56" si="136">$N57/U57</f>
+        <f t="shared" ref="AS55:AS56" si="135">$N57/U57</f>
         <v>3.1825396825396823</v>
       </c>
       <c r="AT55" s="7">
@@ -16848,35 +16883,35 @@
         <v>19.995000000000001</v>
       </c>
       <c r="AA56" s="7">
+        <f t="shared" si="121"/>
+        <v>13.26</v>
+      </c>
+      <c r="AB56" s="7">
         <f t="shared" si="122"/>
-        <v>13.26</v>
-      </c>
-      <c r="AB56" s="7">
+        <v>9.8820000000000014</v>
+      </c>
+      <c r="AC56" s="7">
         <f t="shared" si="123"/>
-        <v>9.8820000000000014</v>
-      </c>
-      <c r="AC56" s="7">
+        <v>7.8120000000000012</v>
+      </c>
+      <c r="AD56" s="7">
         <f t="shared" si="124"/>
-        <v>7.8120000000000012</v>
-      </c>
-      <c r="AD56" s="7">
+        <v>5.1605999999999996</v>
+      </c>
+      <c r="AE56" s="7">
         <f t="shared" si="125"/>
-        <v>5.1605999999999996</v>
-      </c>
-      <c r="AE56" s="7">
+        <v>6.588000000000001</v>
+      </c>
+      <c r="AF56" s="7">
         <f t="shared" si="126"/>
-        <v>6.588000000000001</v>
-      </c>
-      <c r="AF56" s="7">
+        <v>6.4050000000000002</v>
+      </c>
+      <c r="AG56" s="7">
         <f t="shared" si="127"/>
-        <v>6.4050000000000002</v>
-      </c>
-      <c r="AG56" s="7">
+        <v>6.048</v>
+      </c>
+      <c r="AH56" s="7">
         <f t="shared" si="128"/>
-        <v>6.048</v>
-      </c>
-      <c r="AH56" s="7">
-        <f t="shared" si="129"/>
         <v>4.9776000000000007</v>
       </c>
       <c r="AK56" s="4" t="s">
@@ -16887,19 +16922,19 @@
         <v>1</v>
       </c>
       <c r="AM56" s="7">
+        <f t="shared" si="129"/>
+        <v>1.8235294117647058</v>
+      </c>
+      <c r="AN56" s="7">
         <f t="shared" si="130"/>
-        <v>1.8235294117647058</v>
-      </c>
-      <c r="AN56" s="7">
+        <v>2.8703703703703702</v>
+      </c>
+      <c r="AO56" s="7">
         <f t="shared" si="131"/>
-        <v>2.8703703703703702</v>
-      </c>
-      <c r="AO56" s="7">
+        <v>3.6904761904761902</v>
+      </c>
+      <c r="AP56" s="7">
         <f t="shared" si="132"/>
-        <v>3.6904761904761902</v>
-      </c>
-      <c r="AP56" s="7">
-        <f t="shared" si="133"/>
         <v>5.4964539007092199</v>
       </c>
       <c r="AQ56" s="7">
@@ -16907,11 +16942,11 @@
         <v>4.2349726775956285</v>
       </c>
       <c r="AR56" s="7">
+        <f t="shared" si="134"/>
+        <v>4.4285714285714288</v>
+      </c>
+      <c r="AS56" s="7">
         <f t="shared" si="135"/>
-        <v>4.4285714285714288</v>
-      </c>
-      <c r="AS56" s="7">
-        <f t="shared" si="136"/>
         <v>4.6130952380952381</v>
       </c>
       <c r="AT56" s="7">
@@ -17204,35 +17239,35 @@
         <v>5.9279999999999999</v>
       </c>
       <c r="AA60" s="7">
-        <f t="shared" ref="AA60:AA61" si="137" xml:space="preserve"> (C60 * O60 * 60) / 1000</f>
+        <f t="shared" ref="AA60:AA61" si="136" xml:space="preserve"> (C60 * O60 * 60) / 1000</f>
         <v>3.7728000000000002</v>
       </c>
       <c r="AB60" s="7">
-        <f t="shared" ref="AB60:AB61" si="138" xml:space="preserve"> (D60 * P60 * 60) / 1000</f>
+        <f t="shared" ref="AB60:AB61" si="137" xml:space="preserve"> (D60 * P60 * 60) / 1000</f>
         <v>2.8559999999999999</v>
       </c>
       <c r="AC60" s="7">
-        <f t="shared" ref="AC60:AC61" si="139" xml:space="preserve"> (E60 * Q60 * 60) / 1000</f>
+        <f t="shared" ref="AC60:AC61" si="138" xml:space="preserve"> (E60 * Q60 * 60) / 1000</f>
         <v>3.1920000000000002</v>
       </c>
       <c r="AD60" s="7">
-        <f t="shared" ref="AD60:AD61" si="140" xml:space="preserve"> (F60 * R60 * 60) / 1000</f>
+        <f t="shared" ref="AD60:AD61" si="139" xml:space="preserve"> (F60 * R60 * 60) / 1000</f>
         <v>2.73</v>
       </c>
       <c r="AE60" s="7">
-        <f t="shared" ref="AE60:AE61" si="141" xml:space="preserve"> (G60 * S60 * 60) / 1000</f>
+        <f t="shared" ref="AE60:AE61" si="140" xml:space="preserve"> (G60 * S60 * 60) / 1000</f>
         <v>3.1590000000000003</v>
       </c>
       <c r="AF60" s="7">
-        <f t="shared" ref="AF60:AF61" si="142" xml:space="preserve"> (H60 * T60 * 60) / 1000</f>
+        <f t="shared" ref="AF60:AF61" si="141" xml:space="preserve"> (H60 * T60 * 60) / 1000</f>
         <v>3.36</v>
       </c>
       <c r="AG60" s="7">
-        <f t="shared" ref="AG60:AG61" si="143" xml:space="preserve"> (I60 * U60 * 60) / 1000</f>
+        <f t="shared" ref="AG60:AG61" si="142" xml:space="preserve"> (I60 * U60 * 60) / 1000</f>
         <v>3.9060000000000006</v>
       </c>
       <c r="AH60" s="7">
-        <f t="shared" ref="AH60:AH61" si="144" xml:space="preserve"> (J60 * V60 * 60) / 1000</f>
+        <f t="shared" ref="AH60:AH61" si="143" xml:space="preserve"> (J60 * V60 * 60) / 1000</f>
         <v>4.032</v>
       </c>
       <c r="AK60" s="3" t="s">
@@ -17243,31 +17278,31 @@
         <v>1</v>
       </c>
       <c r="AM60" s="7">
-        <f t="shared" ref="AM60:AM61" si="145">$N62/O62</f>
+        <f t="shared" ref="AM60:AM61" si="144">$N62/O62</f>
         <v>1.9847328244274809</v>
       </c>
       <c r="AN60" s="7">
-        <f t="shared" ref="AN60:AN61" si="146">$N62/P62</f>
+        <f t="shared" ref="AN60:AN61" si="145">$N62/P62</f>
         <v>3.8235294117647056</v>
       </c>
       <c r="AO60" s="7">
-        <f t="shared" ref="AO60:AO61" si="147">$N62/Q62</f>
+        <f t="shared" ref="AO60:AO61" si="146">$N62/Q62</f>
         <v>3.4210526315789473</v>
       </c>
       <c r="AP60" s="7">
-        <f t="shared" ref="AP60:AP61" si="148">$N62/R62</f>
+        <f t="shared" ref="AP60:AP61" si="147">$N62/R62</f>
         <v>4</v>
       </c>
       <c r="AQ60" s="7">
-        <f t="shared" ref="AQ60" si="149">$N62/S62</f>
+        <f t="shared" ref="AQ60" si="148">$N62/S62</f>
         <v>3.2098765432098766</v>
       </c>
       <c r="AR60" s="7">
-        <f t="shared" ref="AR60:AR61" si="150">$N62/T62</f>
+        <f t="shared" ref="AR60:AR61" si="149">$N62/T62</f>
         <v>3.25</v>
       </c>
       <c r="AS60" s="7">
-        <f t="shared" ref="AS60:AS61" si="151">$N62/U62</f>
+        <f t="shared" ref="AS60:AS61" si="150">$N62/U62</f>
         <v>2.7956989247311825</v>
       </c>
       <c r="AT60" s="7">
@@ -17344,35 +17379,35 @@
         <v>13.3644</v>
       </c>
       <c r="AA61" s="7">
+        <f t="shared" si="136"/>
+        <v>7.4255999999999993</v>
+      </c>
+      <c r="AB61" s="7">
         <f t="shared" si="137"/>
-        <v>7.4255999999999993</v>
-      </c>
-      <c r="AB61" s="7">
+        <v>6.2279999999999998</v>
+      </c>
+      <c r="AC61" s="7">
         <f t="shared" si="138"/>
-        <v>6.2279999999999998</v>
-      </c>
-      <c r="AC61" s="7">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="AD61" s="7">
         <f t="shared" si="139"/>
-        <v>5.2560000000000002</v>
-      </c>
-      <c r="AD61" s="7">
+        <v>4.7160000000000011</v>
+      </c>
+      <c r="AE61" s="7">
         <f t="shared" si="140"/>
-        <v>4.7160000000000011</v>
-      </c>
-      <c r="AE61" s="7">
+        <v>3.2208000000000001</v>
+      </c>
+      <c r="AF61" s="7">
         <f t="shared" si="141"/>
-        <v>3.2208000000000001</v>
-      </c>
-      <c r="AF61" s="7">
+        <v>3.2759999999999998</v>
+      </c>
+      <c r="AG61" s="7">
         <f t="shared" si="142"/>
-        <v>3.2759999999999998</v>
-      </c>
-      <c r="AG61" s="7">
+        <v>3.0377999999999998</v>
+      </c>
+      <c r="AH61" s="7">
         <f t="shared" si="143"/>
-        <v>3.0377999999999998</v>
-      </c>
-      <c r="AH61" s="7">
-        <f t="shared" si="144"/>
         <v>3.0089999999999999</v>
       </c>
       <c r="AK61" s="4" t="s">
@@ -17383,19 +17418,19 @@
         <v>1</v>
       </c>
       <c r="AM61" s="7">
+        <f t="shared" si="144"/>
+        <v>2.1764705882352939</v>
+      </c>
+      <c r="AN61" s="7">
         <f t="shared" si="145"/>
-        <v>2.1764705882352939</v>
-      </c>
-      <c r="AN61" s="7">
+        <v>2.9942196531791905</v>
+      </c>
+      <c r="AO61" s="7">
         <f t="shared" si="146"/>
-        <v>2.9942196531791905</v>
-      </c>
-      <c r="AO61" s="7">
+        <v>3.547945205479452</v>
+      </c>
+      <c r="AP61" s="7">
         <f t="shared" si="147"/>
-        <v>3.547945205479452</v>
-      </c>
-      <c r="AP61" s="7">
-        <f t="shared" si="148"/>
         <v>3.9541984732824424</v>
       </c>
       <c r="AQ61" s="7">
@@ -17403,11 +17438,11 @@
         <v>5.8863636363636358</v>
       </c>
       <c r="AR61" s="7">
+        <f t="shared" si="149"/>
+        <v>5.6923076923076916</v>
+      </c>
+      <c r="AS61" s="7">
         <f t="shared" si="150"/>
-        <v>5.6923076923076916</v>
-      </c>
-      <c r="AS61" s="7">
-        <f t="shared" si="151"/>
         <v>6.2409638554216871</v>
       </c>
       <c r="AT61" s="7">
@@ -17700,35 +17735,35 @@
         <v>16.187999999999999</v>
       </c>
       <c r="AA65" s="7">
-        <f t="shared" ref="AA65:AA66" si="152" xml:space="preserve"> (C65 * O65 * 60) / 1000</f>
+        <f t="shared" ref="AA65:AA66" si="151" xml:space="preserve"> (C65 * O65 * 60) / 1000</f>
         <v>10.152000000000001</v>
       </c>
       <c r="AB65" s="7">
-        <f t="shared" ref="AB65:AB66" si="153" xml:space="preserve"> (D65 * P65 * 60) / 1000</f>
+        <f t="shared" ref="AB65:AB66" si="152" xml:space="preserve"> (D65 * P65 * 60) / 1000</f>
         <v>7.77</v>
       </c>
       <c r="AC65" s="7">
-        <f t="shared" ref="AC65:AC66" si="154" xml:space="preserve"> (E65 * Q65 * 60) / 1000</f>
+        <f t="shared" ref="AC65:AC66" si="153" xml:space="preserve"> (E65 * Q65 * 60) / 1000</f>
         <v>8.0219999999999985</v>
       </c>
       <c r="AD65" s="7">
-        <f t="shared" ref="AD65:AD66" si="155" xml:space="preserve"> (F65 * R65 * 60) / 1000</f>
+        <f t="shared" ref="AD65:AD66" si="154" xml:space="preserve"> (F65 * R65 * 60) / 1000</f>
         <v>7.77</v>
       </c>
       <c r="AE65" s="7">
-        <f t="shared" ref="AE65:AE66" si="156" xml:space="preserve"> (G65 * S65 * 60) / 1000</f>
+        <f t="shared" ref="AE65:AE66" si="155" xml:space="preserve"> (G65 * S65 * 60) / 1000</f>
         <v>8.7750000000000004</v>
       </c>
       <c r="AF65" s="7">
-        <f t="shared" ref="AF65:AF66" si="157" xml:space="preserve"> (H65 * T65 * 60) / 1000</f>
+        <f t="shared" ref="AF65:AF66" si="156" xml:space="preserve"> (H65 * T65 * 60) / 1000</f>
         <v>10.8432</v>
       </c>
       <c r="AG65" s="7">
-        <f t="shared" ref="AG65:AG66" si="158" xml:space="preserve"> (I65 * U65 * 60) / 1000</f>
+        <f t="shared" ref="AG65:AG66" si="157" xml:space="preserve"> (I65 * U65 * 60) / 1000</f>
         <v>8.562599999999998</v>
       </c>
       <c r="AH65" s="7">
-        <f t="shared" ref="AH65:AH66" si="159" xml:space="preserve"> (J65 * V65 * 60) / 1000</f>
+        <f t="shared" ref="AH65:AH66" si="158" xml:space="preserve"> (J65 * V65 * 60) / 1000</f>
         <v>10.929600000000001</v>
       </c>
       <c r="AK65" s="3" t="s">
@@ -17739,31 +17774,31 @@
         <v>1</v>
       </c>
       <c r="AM65" s="7">
-        <f t="shared" ref="AM65:AM66" si="160">$N67/O67</f>
+        <f t="shared" ref="AM65:AM66" si="159">$N67/O67</f>
         <v>1.9722222222222221</v>
       </c>
       <c r="AN65" s="7">
-        <f t="shared" ref="AN65:AN66" si="161">$N67/P67</f>
+        <f t="shared" ref="AN65:AN66" si="160">$N67/P67</f>
         <v>3.8378378378378373</v>
       </c>
       <c r="AO65" s="7">
-        <f t="shared" ref="AO65:AO66" si="162">$N67/Q67</f>
+        <f t="shared" ref="AO65:AO66" si="161">$N67/Q67</f>
         <v>3.7172774869109948</v>
       </c>
       <c r="AP65" s="7">
-        <f t="shared" ref="AP65:AP66" si="163">$N67/R67</f>
+        <f t="shared" ref="AP65:AP66" si="162">$N67/R67</f>
         <v>3.8378378378378373</v>
       </c>
       <c r="AQ65" s="7">
-        <f t="shared" ref="AQ65" si="164">$N67/S67</f>
+        <f t="shared" ref="AQ65" si="163">$N67/S67</f>
         <v>3.1555555555555554</v>
       </c>
       <c r="AR65" s="7">
-        <f t="shared" ref="AR65:AR66" si="165">$N67/T67</f>
+        <f t="shared" ref="AR65:AR66" si="164">$N67/T67</f>
         <v>2.8286852589641436</v>
       </c>
       <c r="AS65" s="7">
-        <f t="shared" ref="AS65:AS66" si="166">$N67/U67</f>
+        <f t="shared" ref="AS65:AS66" si="165">$N67/U67</f>
         <v>3.5323383084577116</v>
       </c>
       <c r="AT65" s="7">
@@ -17840,35 +17875,35 @@
         <v>34.391400000000004</v>
       </c>
       <c r="AA66" s="7">
+        <f t="shared" si="151"/>
+        <v>19.999200000000002</v>
+      </c>
+      <c r="AB66" s="7">
         <f t="shared" si="152"/>
-        <v>19.999200000000002</v>
-      </c>
-      <c r="AB66" s="7">
+        <v>17.876999999999999</v>
+      </c>
+      <c r="AC66" s="7">
         <f t="shared" si="153"/>
-        <v>17.876999999999999</v>
-      </c>
-      <c r="AC66" s="7">
+        <v>15.3636</v>
+      </c>
+      <c r="AD66" s="7">
         <f t="shared" si="154"/>
-        <v>15.3636</v>
-      </c>
-      <c r="AD66" s="7">
+        <v>12.077999999999998</v>
+      </c>
+      <c r="AE66" s="7">
         <f t="shared" si="155"/>
-        <v>12.077999999999998</v>
-      </c>
-      <c r="AE66" s="7">
+        <v>12.919799999999999</v>
+      </c>
+      <c r="AF66" s="7">
         <f t="shared" si="156"/>
-        <v>12.919799999999999</v>
-      </c>
-      <c r="AF66" s="7">
+        <v>11.569199999999999</v>
+      </c>
+      <c r="AG66" s="7">
         <f t="shared" si="157"/>
-        <v>11.569199999999999</v>
-      </c>
-      <c r="AG66" s="7">
+        <v>11.7552</v>
+      </c>
+      <c r="AH66" s="7">
         <f t="shared" si="158"/>
-        <v>11.7552</v>
-      </c>
-      <c r="AH66" s="7">
-        <f t="shared" si="159"/>
         <v>10.540800000000001</v>
       </c>
       <c r="AK66" s="4" t="s">
@@ -17879,19 +17914,19 @@
         <v>1</v>
       </c>
       <c r="AM66" s="7">
+        <f t="shared" si="159"/>
+        <v>2.0795631825273011</v>
+      </c>
+      <c r="AN66" s="7">
         <f t="shared" si="160"/>
-        <v>2.0795631825273011</v>
-      </c>
-      <c r="AN66" s="7">
+        <v>2.6396039603960397</v>
+      </c>
+      <c r="AO66" s="7">
         <f t="shared" si="161"/>
-        <v>2.6396039603960397</v>
-      </c>
-      <c r="AO66" s="7">
+        <v>3.2276029055690074</v>
+      </c>
+      <c r="AP66" s="7">
         <f t="shared" si="162"/>
-        <v>3.2276029055690074</v>
-      </c>
-      <c r="AP66" s="7">
-        <f t="shared" si="163"/>
         <v>4.03939393939394</v>
       </c>
       <c r="AQ66" s="7">
@@ -17899,11 +17934,11 @@
         <v>3.7762039660056659</v>
       </c>
       <c r="AR66" s="7">
+        <f t="shared" si="164"/>
+        <v>4.2861736334405149</v>
+      </c>
+      <c r="AS66" s="7">
         <f t="shared" si="165"/>
-        <v>4.2861736334405149</v>
-      </c>
-      <c r="AS66" s="7">
-        <f t="shared" si="166"/>
         <v>4.2183544303797467</v>
       </c>
       <c r="AT66" s="7">
@@ -18196,35 +18231,35 @@
         <v>14.086799999999998</v>
       </c>
       <c r="AA70" s="7">
-        <f t="shared" ref="AA70:AA71" si="167" xml:space="preserve"> (C70 * O70 * 60) / 1000</f>
+        <f t="shared" ref="AA70:AA71" si="166" xml:space="preserve"> (C70 * O70 * 60) / 1000</f>
         <v>7.9487999999999994</v>
       </c>
       <c r="AB70" s="7">
-        <f t="shared" ref="AB70:AB71" si="168" xml:space="preserve"> (D70 * P70 * 60) / 1000</f>
+        <f t="shared" ref="AB70:AB71" si="167" xml:space="preserve"> (D70 * P70 * 60) / 1000</f>
         <v>6.0911999999999997</v>
       </c>
       <c r="AC70" s="7">
-        <f t="shared" ref="AC70:AC71" si="169" xml:space="preserve"> (E70 * Q70 * 60) / 1000</f>
+        <f t="shared" ref="AC70:AC71" si="168" xml:space="preserve"> (E70 * Q70 * 60) / 1000</f>
         <v>6.1775999999999991</v>
       </c>
       <c r="AD70" s="7">
-        <f t="shared" ref="AD70:AD71" si="170" xml:space="preserve"> (F70 * R70 * 60) / 1000</f>
+        <f t="shared" ref="AD70:AD71" si="169" xml:space="preserve"> (F70 * R70 * 60) / 1000</f>
         <v>6.0911999999999997</v>
       </c>
       <c r="AE70" s="7">
-        <f t="shared" ref="AE70:AE71" si="171" xml:space="preserve"> (G70 * S70 * 60) / 1000</f>
+        <f t="shared" ref="AE70:AE71" si="170" xml:space="preserve"> (G70 * S70 * 60) / 1000</f>
         <v>7.14</v>
       </c>
       <c r="AF70" s="7">
-        <f t="shared" ref="AF70:AF71" si="172" xml:space="preserve"> (H70 * T70 * 60) / 1000</f>
+        <f t="shared" ref="AF70:AF71" si="171" xml:space="preserve"> (H70 * T70 * 60) / 1000</f>
         <v>7.56</v>
       </c>
       <c r="AG70" s="7">
-        <f t="shared" ref="AG70:AG71" si="173" xml:space="preserve"> (I70 * U70 * 60) / 1000</f>
+        <f t="shared" ref="AG70:AG71" si="172" xml:space="preserve"> (I70 * U70 * 60) / 1000</f>
         <v>7.6895999999999995</v>
       </c>
       <c r="AH70" s="7">
-        <f t="shared" ref="AH70:AH71" si="174" xml:space="preserve"> (J70 * V70 * 60) / 1000</f>
+        <f t="shared" ref="AH70:AH71" si="173" xml:space="preserve"> (J70 * V70 * 60) / 1000</f>
         <v>8.2584000000000017</v>
       </c>
       <c r="AK70" s="3" t="s">
@@ -18235,31 +18270,31 @@
         <v>1</v>
       </c>
       <c r="AM70" s="7">
-        <f t="shared" ref="AM70:AM71" si="175">$N72/O72</f>
+        <f t="shared" ref="AM70:AM71" si="174">$N72/O72</f>
         <v>1.9782608695652175</v>
       </c>
       <c r="AN70" s="7">
-        <f t="shared" ref="AN70:AN71" si="176">$N72/P72</f>
+        <f t="shared" ref="AN70:AN71" si="175">$N72/P72</f>
         <v>3.8723404255319149</v>
       </c>
       <c r="AO70" s="7">
-        <f t="shared" ref="AO70:AO71" si="177">$N72/Q72</f>
+        <f t="shared" ref="AO70:AO71" si="176">$N72/Q72</f>
         <v>3.8181818181818183</v>
       </c>
       <c r="AP70" s="7">
-        <f t="shared" ref="AP70:AP71" si="178">$N72/R72</f>
+        <f t="shared" ref="AP70:AP71" si="177">$N72/R72</f>
         <v>3.8723404255319149</v>
       </c>
       <c r="AQ70" s="7">
-        <f t="shared" ref="AQ70" si="179">$N72/S72</f>
+        <f t="shared" ref="AQ70" si="178">$N72/S72</f>
         <v>3.2117647058823531</v>
       </c>
       <c r="AR70" s="7">
-        <f t="shared" ref="AR70:AR71" si="180">$N72/T72</f>
+        <f t="shared" ref="AR70:AR71" si="179">$N72/T72</f>
         <v>3.12</v>
       </c>
       <c r="AS70" s="7">
-        <f t="shared" ref="AS70:AS71" si="181">$N72/U72</f>
+        <f t="shared" ref="AS70:AS71" si="180">$N72/U72</f>
         <v>3.0674157303370784</v>
       </c>
       <c r="AT70" s="7">
@@ -18336,35 +18371,35 @@
         <v>23.6328</v>
       </c>
       <c r="AA71" s="7">
+        <f t="shared" si="166"/>
+        <v>16.068000000000001</v>
+      </c>
+      <c r="AB71" s="7">
         <f t="shared" si="167"/>
-        <v>16.068000000000001</v>
-      </c>
-      <c r="AB71" s="7">
+        <v>14.017799999999999</v>
+      </c>
+      <c r="AC71" s="7">
         <f t="shared" si="168"/>
-        <v>14.017799999999999</v>
-      </c>
-      <c r="AC71" s="7">
+        <v>8.8559999999999999</v>
+      </c>
+      <c r="AD71" s="7">
         <f t="shared" si="169"/>
-        <v>8.8559999999999999</v>
-      </c>
-      <c r="AD71" s="7">
+        <v>10.174799999999999</v>
+      </c>
+      <c r="AE71" s="7">
         <f t="shared" si="170"/>
-        <v>10.174799999999999</v>
-      </c>
-      <c r="AE71" s="7">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AF71" s="7">
         <f t="shared" si="171"/>
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="AF71" s="7">
+        <v>5.2451999999999996</v>
+      </c>
+      <c r="AG71" s="7">
         <f t="shared" si="172"/>
-        <v>5.2451999999999996</v>
-      </c>
-      <c r="AG71" s="7">
+        <v>8.2212000000000014</v>
+      </c>
+      <c r="AH71" s="7">
         <f t="shared" si="173"/>
-        <v>8.2212000000000014</v>
-      </c>
-      <c r="AH71" s="7">
-        <f t="shared" si="174"/>
         <v>4.7945999999999991</v>
       </c>
       <c r="AK71" s="4" t="s">
@@ -18375,19 +18410,19 @@
         <v>1</v>
       </c>
       <c r="AM71" s="7">
+        <f t="shared" si="174"/>
+        <v>1.7786407766990291</v>
+      </c>
+      <c r="AN71" s="7">
         <f t="shared" si="175"/>
-        <v>1.7786407766990291</v>
-      </c>
-      <c r="AN71" s="7">
+        <v>2.3916449086161879</v>
+      </c>
+      <c r="AO71" s="7">
         <f t="shared" si="176"/>
-        <v>2.3916449086161879</v>
-      </c>
-      <c r="AO71" s="7">
+        <v>3.7235772357723578</v>
+      </c>
+      <c r="AP71" s="7">
         <f t="shared" si="177"/>
-        <v>3.7235772357723578</v>
-      </c>
-      <c r="AP71" s="7">
-        <f t="shared" si="178"/>
         <v>3.2949640287769788</v>
       </c>
       <c r="AQ71" s="7">
@@ -18395,11 +18430,11 @@
         <v>3.9826086956521745</v>
       </c>
       <c r="AR71" s="7">
+        <f t="shared" si="179"/>
+        <v>6.4964539007092199</v>
+      </c>
+      <c r="AS71" s="7">
         <f t="shared" si="180"/>
-        <v>6.4964539007092199</v>
-      </c>
-      <c r="AS71" s="7">
-        <f t="shared" si="181"/>
         <v>4.1447963800904981</v>
       </c>
       <c r="AT71" s="7">
